--- a/data/raw/thirdpostbatch6.xlsx
+++ b/data/raw/thirdpostbatch6.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="501">
   <si>
     <t>postCategory</t>
   </si>
@@ -104,7 +104,7 @@
     <t>3234360077</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;a&gt;🔲🔲💠🔲🔲➖▐ BEBE SPA▐ ➖🔲🔲💠🔲🔲-&lt;/a&gt;&lt;p&gt; 💞SWEET ASIAN &amp;amp; Hot Latina💞&lt;p&gt; Refresh mind &amp;amp; body with an Asian &amp;amp; Latina Relaxation&lt;p&gt;❥ Clean and Cozy: Everyone/everything is new&lt;p&gt; 💠——— 323-436-0077 ———💠&lt;p&gt;&lt;a&gt; ★——OPEN : 10AM - 10PM——★&lt;/a&gt;&lt;p&gt; 　We Promise You won’t regret!!!&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;a&gt;🔲🔲💠🔲🔲➖▐ BEBE SPA▐ ➖🔲🔲💠🔲🔲-&lt;/a&gt;&lt;p&gt; 💞SWEET ASIAN &amp;amp; Hot Latina💞&lt;p&gt; Refresh mind &amp;amp; body with an Asian &amp;amp; Latina Relaxation&lt;p&gt;❥ Clean and Cozy: Everyone/everything is new&lt;p&gt; 💠——— 323-436-0077 ———💠&lt;p&gt;&lt;a&gt; ★——OPEN : 10AM - 10PM——★&lt;/a&gt;&lt;p&gt; 　We Promise You won’t regret!!!&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt; </t>
   </si>
   <si>
     <t>1006</t>
@@ -143,10 +143,10 @@
     <t>Hollywood, Los Angeles, YOUR PLACE</t>
   </si>
   <si>
-    <t xml:space="preserve">My name is &lt;i&gt;Hazel&lt;/i&gt;   I offer &lt;b&gt;FULL BODY,&lt;i&gt;THERAPEUTIC&lt;/i&gt;&lt;/b&gt; </t>
-  </si>
-  <si>
-    <t>1218</t>
+    <t xml:space="preserve">My name is  Hazel    I offer  FULL BODY, THERAPEUTIC   </t>
+  </si>
+  <si>
+    <t>118</t>
   </si>
   <si>
     <t>🔹🔹✨💙Full Body • Massage • Outcall💙✨🔹🔹</t>
@@ -161,7 +161,7 @@
     <t>2138412262</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;a&gt;🔲🔲💠🔲🔲➖▐ NEW LAX ACU▐ ➖🔲🔲💠🔲🔲&lt;/a&gt;&lt;p&gt; 💞ASIAN &amp;amp; LATINA &amp;amp; WHITE💞 &lt;p&gt; INTERNATIONAL girls will treat you like a king with hot and sexy body&lt;p&gt;❥ Clean and Cozy: Everyone/everything is new&lt;p&gt; 💠——— 213-841-2262 ———💠&lt;p&gt;&lt;a&gt; ★——We Rotate Our Staff Everyday——★ ★——Beautiful and Attractive ladies everyday !——★ &lt;/a&gt;&lt;p&gt;　　OPEN :10:00Am To 10:00Pm&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;a&gt;🔲🔲💠🔲🔲➖▐ NEW LAX ACU▐ ➖🔲🔲💠🔲🔲&lt;/a&gt;&lt;p&gt; 💞ASIAN &amp;amp; LATINA &amp;amp; WHITE💞 &lt;p&gt; INTERNATIONAL girls will treat you like a king with hot and sexy body&lt;p&gt;❥ Clean and Cozy: Everyone/everything is new&lt;p&gt; 💠——— 213-841-2262 ———💠&lt;p&gt;&lt;a&gt; ★——We Rotate Our Staff Everyday——★ ★——Beautiful and Attractive ladies everyday !——★ &lt;/a&gt;&lt;p&gt;　　OPEN :10:00Am To 10:00Pm&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt; </t>
   </si>
   <si>
     <t>💖▃NEW GIRLS  ▃ 💖EXOTIC GIRL💖▃▃▃▃❶▃▃▃▃ 💖SEXY💖▃▃▃▃❶▃▃▃▃ 💖4 You💖▃▃▃▃❶▃▃▃▃ 💖Asian &amp; Latina 💖▃▃▃▃❶▃▃▃▃ 💖✨</t>
@@ -185,7 +185,7 @@
     <t>Los Angeles, Norwalk, Whittier, lakewood, montebello, Westside</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;* Just What You Want ... &amp;amp; More in an Upscale Spa !!! &lt;/b&gt;    &lt;b&gt; * Voted the BEST MASSAGE in Town with Clean Private Room, Private Shower, Table Shower, Nice Background Music! &lt;/b&gt;    &lt;b&gt; * Cute, Young &amp;amp; Friendly Asian Girls Will Sooth Your Pains &amp;amp; Stress Away...&lt;/b&gt;    &lt;b&gt;* Front &amp;amp; Back Entrance for the Discrete Gentleman &lt;/b&gt;    &lt;b&gt;* First Come First Served. No Rain Check Pls !&lt;/b&gt;     &lt;b&gt;&lt;u&gt;&lt;i&gt;Business Location:&lt;/i&gt;&lt;/u&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  * Just What You Want ... &amp;amp; More in an Upscale Spa !!!        * Voted the BEST MASSAGE in Town with Clean Private Room, Private Shower, Table Shower, Nice Background Music!        * Cute, Young &amp;amp; Friendly Asian Girls Will Sooth Your Pains &amp;amp; Stress Away...      * Front &amp;amp; Back Entrance for the Discrete Gentleman       * First Come First Served. No Rain Check Pls !         Business Location:   </t>
   </si>
   <si>
     <t>💕💕💋💋💕  Your One Stop for Body Works... Voted The Best Massage in Town  !!!    💕💋💋💕💕</t>
@@ -215,7 +215,7 @@
     <t>3102897900 4887367</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;table align="middle" border="0" cellspacing="2" width="1000"&gt; &lt;tr&gt; &lt;td align="center"&gt; &lt;div style="background-image:url(http://www.gotomassage.us/ads/meimassage/bg1.jpg);background-size:980px,977px px;background-repeat:no-repeat;background-position:top;"&gt; &lt;font color="Green" size="6"&gt;★★★ &lt;b&gt; Golden Massage&lt;/b&gt; ★★★&lt;/font&gt; &lt;img height="400 " src="http://www.gotomassage.us/ads/sunrisespa/gif1.gif" width="600 "/&gt; &lt;font color="green" size="5"&gt;&lt;i&gt;♣ Shiatsu ♣ Swedish ♣ Deep Tissue ♣ Light Touch ♣ 4 hands ♣&lt;/i&gt;&lt;/font&gt; &lt;font color="blue" size="5"&gt;✦ New Masseuses ☆ Sweet Smile ☆ Magic Hands ✦&lt;/font&gt; &lt;font color="green" size="5"&gt; Skilled Masseuses Waiting To Release Your Stress!^^ Spacious Private Room!Romantic Lights &amp;amp; Music! Excellent Service! Best in Town! &lt;/font&gt; &lt;font color="red" size="6"&gt;&lt;b&gt;☎ CALL NOW:(310)289-7900 &lt;/b&gt;&lt;/font&gt; &lt;font color="green" size="4"&gt;10:00am-10:00pm,Open 7 Days a Week&lt;/font&gt; &lt;font color="brown" size="5"&gt;Walk-ins &amp;amp; Appointment Welcome&lt;/font&gt; &lt;font color="green" size="5"&gt;&lt;i&gt;💕 Take Your Mind Away From All The Stress 💕&lt;/i&gt;&lt;/font&gt; &lt;font color="blue" size="5"&gt;☛ Location:229 S La Cienega Blvd,Beverly Hills,CA90211 &lt;a href="https://cooltext.com" target="_blank"&gt;&lt;img alt="Do Youself a Favour" height="127" src="https://images.cooltext.com/4887367.png" width="425"/&gt;&lt;/a&gt; &lt;/font&gt;&lt;/div&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/center&gt; </t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;table align="middle" border="0" cellspacing="2" width="1000"&gt; &lt;tr&gt; &lt;td align="center"&gt; &lt;div style="background-image:url(http://www.gotomassage.us/ads/meimassage/bg1.jpg);background-size:980px,977px px;background-repeat:no-repeat;background-position:top;"&gt; &lt;font color="Green" size="6"&gt;★★★   Golden Massage  ★★★&lt;/font&gt; &lt;img height="400 " src="http://www.gotomassage.us/ads/sunrisespa/gif1.gif" width="600 "/&gt; &lt;font color="green" size="5"&gt; ♣ Shiatsu ♣ Swedish ♣ Deep Tissue ♣ Light Touch ♣ 4 hands ♣ &lt;/font&gt; &lt;font color="blue" size="5"&gt;✦ New Masseuses ☆ Sweet Smile ☆ Magic Hands ✦&lt;/font&gt; &lt;font color="green" size="5"&gt; Skilled Masseuses Waiting To Release Your Stress!^^ Spacious Private Room!Romantic Lights &amp;amp; Music! Excellent Service! Best in Town! &lt;/font&gt; &lt;font color="red" size="6"&gt; ☎ CALL NOW:(310)289-7900  &lt;/font&gt; &lt;font color="green" size="4"&gt;10:00am-10:00pm,Open 7 Days a Week&lt;/font&gt; &lt;font color="brown" size="5"&gt;Walk-ins &amp;amp; Appointment Welcome&lt;/font&gt; &lt;font color="green" size="5"&gt; 💕 Take Your Mind Away From All The Stress 💕 &lt;/font&gt; &lt;font color="blue" size="5"&gt;☛ Location:229 S La Cienega Blvd,Beverly Hills,CA90211 &lt;a href="https://cooltext.com" target="_blank"&gt;&lt;img alt="Do Youself a Favour" height="127" src="https://images.cooltext.com/4887367.png" width="425"/&gt;&lt;/a&gt; &lt;/font&gt;&lt;/div&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/center&gt; </t>
   </si>
   <si>
     <t>1106</t>
@@ -287,7 +287,7 @@
     <t>Heyy guys im PRISCILLA I'm SUPER SWEET and I have a very FRIENDrLY &amp; OUTGOING personality  REAL &amp; DISCREET (424) 352-2999</t>
   </si>
   <si>
-    <t>1244</t>
+    <t>108</t>
   </si>
   <si>
     <t>NEW☆💋 __ Cutie __ Girl Next Door __ ☆💋</t>
@@ -335,7 +335,7 @@
     <t>1372023 2466502 4135100 3235347734 3233780152</t>
   </si>
   <si>
-    <t xml:space="preserve">   &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413510034.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413510075.jpg"/&gt; &lt;i&gt;&lt;a&gt; ❤️💚❤️💚&lt;/a&gt;————— &lt;b&gt;Llame para una cita: 323-534-7734 // 323-378-0152&lt;/b&gt;—————&lt;a&gt;❤️💚❤️💚&lt;/a&gt; &lt;a&gt;💋&lt;/a&gt;—— &lt;a&gt;&lt;b&gt;Latina nueva y dulce / New Latina Staff Everyday&lt;/b&gt;&lt;/a&gt;——&lt;a&gt;💋&lt;/a&gt; &lt;b&gt;🌺 TE ATIENDEN EN UN LUGAR LIMPIO Y DISCRETO Clean, Cozy and Discrete&lt;/b&gt; &lt;b&gt;🌺 TENEMOS APARCAMIENTO / Spacious parking space&lt;/b&gt; &lt;b&gt;🌺 RELAJAR CON NUESTRAS MANOS DE SEDA Relaxation with silky hands &lt;/b&gt; &lt;b&gt;🌺 Ayudando al estrés y la ansiedad a desaparecer Melt away your stress&lt;/b&gt; &lt;a&gt;&lt;b&gt;————— 💚 1O am ~ 8 pm —————&lt;/b&gt;&lt;/a&gt;&lt;/i&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve">   &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413510034.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413510075.jpg"/&gt;  &lt;a&gt; ❤️💚❤️💚&lt;/a&gt;—————  Llame para una cita: 323-534-7734 // 323-378-0152 —————&lt;a&gt;❤️💚❤️💚&lt;/a&gt; &lt;a&gt;💋&lt;/a&gt;—— &lt;a&gt; Latina nueva y dulce / New Latina Staff Everyday &lt;/a&gt;——&lt;a&gt;💋&lt;/a&gt;  🌺 TE ATIENDEN EN UN LUGAR LIMPIO Y DISCRETO Clean, Cozy and Discrete   🌺 TENEMOS APARCAMIENTO / Spacious parking space   🌺 RELAJAR CON NUESTRAS MANOS DE SEDA Relaxation with silky hands    🌺 Ayudando al estrés y la ansiedad a desaparecer Melt away your stress  &lt;a&gt; ————— 💚 1O am ~ 8 pm ————— &lt;/a&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>🔲🔲🔲🔲🔲 ▉▉▉▉▉▉▉▉▉▉▉▉▉▉▉ 💋💋💋 Sentirse cómodo // Feel comfortable  💋💋💋 ▉▉▉▉▉▉▉▉▉▉▉▉▉▉▉ 🔲🔲🔲🔲</t>
@@ -368,7 +368,7 @@
     <t>6264608333</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;/b&gt; Call now &lt;u&gt;&lt;b&gt;626-460-8333&lt;/b&gt;&lt;/u&gt;   &lt;b&gt;754 N Lake Ave Pasadena&lt;/b&gt;    ✶ Very Large Spa - 7 Massage Rooms!  ✶ Never Rushed  ✶ Customer ALWAYS gets complete time they paid for  ✶ We have full-time manager  ✶ Girls never Interrupt massage  ✶ Girls don’t answer phone during massage  ✶ Girls don’t come out of room and interrupt massage  ✶ We are Open Early 9am and Open late  ✶ Many Repeat Customers!!  ✶ You Can Choose the Girl  ✶ No Old Ladies Here  ✶ We Just remodel on September 1st  ✶ We added more rooms because so many customers!!  ✶ Very Clean Upscale Facilities     &lt;b&gt;We are Close By:&lt;/b&gt;   ✶ 5 Minutes from Altadena  ✶ 10 Minutes from La Canada  ✶ 15 Minutes from Burbank  ✶ 12 Minutes from Glendale  ✶ 12 Minutes from Sierra Madre  ✶ 12 Minutes from Alhambra  ✶ 15 Minutes from San Marino  ✶ 15 Minutes from Arcadia  ✶ 15 Minutes from La Crescenta  ✶ 2 Minutes from Lake Ave Exit 210</t>
+    <t xml:space="preserve">    Call now   626-460-8333      754 N Lake Ave Pasadena     ✶ Very Large Spa - 7 Massage Rooms!  ✶ Never Rushed  ✶ Customer ALWAYS gets complete time they paid for  ✶ We have full-time manager  ✶ Girls never Interrupt massage  ✶ Girls don’t answer phone during massage  ✶ Girls don’t come out of room and interrupt massage  ✶ We are Open Early 9am and Open late  ✶ Many Repeat Customers!!  ✶ You Can Choose the Girl  ✶ No Old Ladies Here  ✶ We Just remodel on September 1st  ✶ We added more rooms because so many customers!!  ✶ Very Clean Upscale Facilities      We are Close By:    ✶ 5 Minutes from Altadena  ✶ 10 Minutes from La Canada  ✶ 15 Minutes from Burbank  ✶ 12 Minutes from Glendale  ✶ 12 Minutes from Sierra Madre  ✶ 12 Minutes from Alhambra  ✶ 15 Minutes from San Marino  ✶ 15 Minutes from Arcadia  ✶ 15 Minutes from La Crescenta  ✶ 2 Minutes from Lake Ave Exit 210</t>
   </si>
   <si>
     <t>✶ ✶ ✶ SIX ASIAN GIRLS Today ✶ ✶ ✶ No Grandmas Here ✶ ✶ ✶ VERY BUSY SPA ✶ ✶ ✶ ✶ SEVEN MASSAGE Rooms</t>
@@ -419,7 +419,7 @@
     <t>6263378558</t>
   </si>
   <si>
-    <t>🔅 &lt;u&gt;&lt;b&gt;RELAX&lt;/b&gt;&lt;/u&gt; and &lt;u&gt;&lt;b&gt;REWIND&lt;/b&gt;&lt;/u&gt; --- you &lt;u&gt;&lt;b&gt;DESERVE&lt;/b&gt;&lt;/u&gt; it! 🔅    🌴 Exceptional Massage Therapists    🌴 Private rooms providing a tranquil setting for complete Relaxation and Comfort    🌴 Comfortable and Clean Facility    🌴 OPEN EVERYDAY from 9AM to 9PM    🌴 Call to make an Appointment/Walk-Ins Welcome      🌺 &lt;u&gt;&lt;b&gt;GREEN SPA&lt;/b&gt;&lt;/u&gt; 🌺  🌺13020 Francisquito Ave. #1  Baldwin Park, CA 91706  🌺 Call: (626) 337-8558</t>
+    <t>🔅   RELAX   and   REWIND   --- you   DESERVE   it! 🔅    🌴 Exceptional Massage Therapists    🌴 Private rooms providing a tranquil setting for complete Relaxation and Comfort    🌴 Comfortable and Clean Facility    🌴 OPEN EVERYDAY from 9AM to 9PM    🌴 Call to make an Appointment/Walk-Ins Welcome      🌺   GREEN SPA   🌺  🌺13020 Francisquito Ave. #1  Baldwin Park, CA 91706  🌺 Call: (626) 337-8558</t>
   </si>
   <si>
     <t>~~~~~💚 S E N S A T I O N A L ~~~ SULTRY~~~✨ ASIANS💗LATINAS✨ A_V_A_I_L_A_B_L_E ☎ *626*337*8558 💚~~</t>
@@ -467,7 +467,7 @@
     <t>Los Angeles, Montebello /  Monterey Park / Commerce, Pasadena</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt;&lt;ol&gt; &lt;p&gt;&lt;b&gt;═══════════════════════════ &lt;a&gt;🎀 HOT SEXY BEST LINEUP ! 🎀&lt;/a&gt;&lt;p&gt;🔴⚫ TOP THERAPY 🔴⚫ 🔴⚫&lt;a&gt;TEL : 3 2 3 - 2 6 7 - 4 4 1 6 🔴⚫&lt;/a&gt; ═══════════════════════════ 🍎 PERFECT SATISFACTION 🍎 &lt;a&gt; 🎀 &lt;/a&gt; ▬▬Our&lt;a&gt; Priority&lt;/a&gt; Is Your&lt;a&gt; COMPLETE&lt;/a&gt; RELAXATION 🎀 ▬▬&lt;a&gt; INTERNATIONAL &lt;/a&gt; STAFF &lt;/p&gt;&lt;/b&gt;&lt;/p&gt;&lt;/ol&gt;&lt;/ol&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;&lt;ol&gt; &lt;p&gt; ═══════════════════════════ &lt;a&gt;🎀 HOT SEXY BEST LINEUP ! 🎀&lt;/a&gt;&lt;p&gt;🔴⚫ TOP THERAPY 🔴⚫ 🔴⚫&lt;a&gt;TEL : 3 2 3 - 2 6 7 - 4 4 1 6 🔴⚫&lt;/a&gt; ═══════════════════════════ 🍎 PERFECT SATISFACTION 🍎 &lt;a&gt; 🎀 &lt;/a&gt; ▬▬Our&lt;a&gt; Priority&lt;/a&gt; Is Your&lt;a&gt; COMPLETE&lt;/a&gt; RELAXATION 🎀 ▬▬&lt;a&gt; INTERNATIONAL &lt;/a&gt; STAFF &lt;/p&gt; &lt;/p&gt;&lt;/ol&gt;&lt;/ol&gt;</t>
   </si>
   <si>
     <t>🔴⚫⚫⚫▃▃▃▃ 🎇Y🎇O🎇U🎇N🎇G🎇 GIRL ▃▃▃▃⚫⚫🔴⎷⎛— TOP SPA  ⎷⎛🔴⚫⚫⚫⚫⚫🔴▐🏾▐╠╣OT INTERNATIONAL Girls▐🏾▐  🔴⚫⚫⚫⚫⚫🔴</t>
@@ -497,7 +497,7 @@
     <t>Beverly Hills, Hollywood, Los Angeles, San Fernando, San Fernando Valley, Santa Monica, WeHo, Burbank, Studio City, The Hills, Westside</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;p align="center"&gt;&lt;b&gt;Welcome to my members only massage suite…&lt;/b&gt; ✨ 🌴 &lt;b&gt;*HOSTING FROM MY PRIVATE OASIS*&lt;/b&gt; 🌴 &lt;i&gt;(***Shower available. New clients &amp;amp; women welcome... Feel free to inquire❣️❣️❣️)&lt;/i&gt; &lt;b&gt;&lt;u&gt;HOURS OF OPERATION&lt;/u&gt;&lt;/b&gt; &lt;b&gt;Mon-Sat&lt;/b&gt; (9a-midnight) &lt;b&gt;&lt;u&gt;PLATINUM MASSAGE PACKAGE DONATIONS&lt;/u&gt;&lt;/b&gt; 15min: 100 30min: 140 60min: 200 90min: 250 &lt;i&gt;(*Longer sessions available.)&lt;/i&gt; ⭐️ &lt;b&gt;&lt;u&gt;WEEKLY VIP UNLIMITED MEMBERSHIP&lt;/u&gt;&lt;/b&gt; ⭐️ See me as many times as you want for the week!!! **&lt;b&gt;&lt;u&gt;FLAT RATE&lt;/u&gt;&lt;/b&gt; - Everything on the list is included. &lt;i&gt;(Ask for more details in-person, after your first-visit... #YMMV. 500+ Weekly/Monthly Membership Donation.)&lt;/i&gt; I specialize in a range of rejuvenating, energizing &amp;amp; decompressing techniques using warm organic essential oils that I blend &amp;amp; customize just for you... If you are craving an &lt;b&gt;relaxing, uplifting, purifying, centering and/or calming&lt;/b&gt; moment to enjoy a full body sensual touch for men and women &lt;i&gt;(couples are welcome❣️)&lt;/i&gt;, as your host, you will find a &lt;b&gt;&lt;i&gt;relaxing zen-ambience with candlelight&lt;/i&gt;&lt;/b&gt;&lt;/p&gt;</t>
+    <t xml:space="preserve"> &lt;p align="center"&gt; Welcome to my members only massage suite…  ✨ 🌴  *HOSTING FROM MY PRIVATE OASIS*  🌴  (***Shower available. New clients &amp;amp; women welcome... Feel free to inquire❣️❣️❣️)    HOURS OF OPERATION    Mon-Sat  (9a-midnight)   PLATINUM MASSAGE PACKAGE DONATIONS   15min: 100 30min: 140 60min: 200 90min: 250  (*Longer sessions available.)  ⭐️   WEEKLY VIP UNLIMITED MEMBERSHIP   ⭐️ See me as many times as you want for the week!!! **  FLAT RATE   - Everything on the list is included.  (Ask for more details in-person, after your first-visit... #YMMV. 500+ Weekly/Monthly Membership Donation.)  I specialize in a range of rejuvenating, energizing &amp;amp; decompressing techniques using warm organic essential oils that I blend &amp;amp; customize just for you... If you are craving an  relaxing, uplifting, purifying, centering and/or calming  moment to enjoy a full body sensual touch for men and women  (couples are welcome❣️) , as your host, you will find a   relaxing zen-ambience with candlelight  &lt;/p&gt;</t>
   </si>
   <si>
     <t>857</t>
@@ -554,7 +554,7 @@
     <t>Hollywood, Los Angeles, West Holywood (Incalls Only)</t>
   </si>
   <si>
-    <t>200 - 1 Hr. Deep Tissue/Sports FBSM    150 - 1Hr Swedish FBSM     &lt;b&gt;100 - 30min. Swedish or Deep Tissue &lt;/b&gt;          323*891*4201        ~ Sonja</t>
+    <t>200 - 1 Hr. Deep Tissue/Sports FBSM    150 - 1Hr Swedish FBSM      100 - 30min. Swedish or Deep Tissue            323*891*4201        ~ Sonja</t>
   </si>
   <si>
     <t>Relaxation ~*~ Rejuvenation ~*~ Sensual ~*~ Healing ~*~ FBSM ~*~ Specials ~*~ This Week Only!!!</t>
@@ -584,7 +584,7 @@
     <t>3103551685</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;table align="middle" border="0" cellspacing="2" width="1000"&gt; &lt;tr&gt; &lt;td align="center"&gt; &lt;div style="background-image:url(http://www.gotomassage.us/ads/meimassage/bg1.jpg);background-size:980px,977px px;background-repeat:no-repeat;background-position:top;"&gt; &lt;font color="Green" size="6"&gt;★★★★★ 5 Star Massage ★★★★★&lt;/font&gt; &lt;img height="400 " src="http://www.gotomassage.us/ads/sunrisespa/gif1.gif" width="600 "/&gt; &lt;font color="green" size="5"&gt;&lt;i&gt;💕 Experienced Massage Take Your Mind Away From All The Stress 💕&lt;/i&gt;&lt;/font&gt; &lt;font color="green" size="5"&gt;&lt;i&gt;💕Sweet Smile &amp;amp; Gentle Touch Cure All Your Stifness 💕&lt;/i&gt;&lt;/font&gt; &lt;font color="blue" size="5"&gt;&lt;i&gt;♣ Shiatsu ♣ Swedish ♣ Deep Tissue ♣ Light Touch ♣ 4 hands ♣&lt;/i&gt;&lt;/font&gt; &lt;font color="green" size="5"&gt;✦ Young Girls ☆ Sweet Smile ☆ Magic Hands ✦&lt;/font&gt; &lt;font color="blue" size="5"&gt; Body Massage: $30/30Min. Body Massage: $45/60Min. Body Massage: $75/90Min. 4 Hands Massage: $90/60Min. &lt;/font&gt; &lt;font color="red" size="6"&gt;&lt;b&gt;☎ CALL NOW:(310)355-1685&lt;/b&gt;&lt;/font&gt; &lt;font color="green" size="4"&gt;10:00am-9:00pm,Open 7 Days a Week&lt;/font&gt; &lt;font color="brown" size="5"&gt;Walk-ins &amp;amp; Appointment Welcome&lt;/font&gt; &lt;font color="blue" size="5"&gt;☛ Location:12946 Hawthorne Blvd,Hawthorne,CA 90250 &lt;a href="http://www.textspace.net/dynamic_blinkie_text/" target="_blank"&gt;&lt;img alt="Dynamic Blinkie Text Generator at TextSpace.net" border="0" src="http://imagizer.imageshack.com/img923/9746/pD9Pyj.gif"/&gt;&lt;/a&gt; &lt;/font&gt;&lt;/div&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/center&gt; </t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;table align="middle" border="0" cellspacing="2" width="1000"&gt; &lt;tr&gt; &lt;td align="center"&gt; &lt;div style="background-image:url(http://www.gotomassage.us/ads/meimassage/bg1.jpg);background-size:980px,977px px;background-repeat:no-repeat;background-position:top;"&gt; &lt;font color="Green" size="6"&gt;★★★★★ 5 Star Massage ★★★★★&lt;/font&gt; &lt;img height="400 " src="http://www.gotomassage.us/ads/sunrisespa/gif1.gif" width="600 "/&gt; &lt;font color="green" size="5"&gt; 💕 Experienced Massage Take Your Mind Away From All The Stress 💕 &lt;/font&gt; &lt;font color="green" size="5"&gt; 💕Sweet Smile &amp;amp; Gentle Touch Cure All Your Stifness 💕 &lt;/font&gt; &lt;font color="blue" size="5"&gt; ♣ Shiatsu ♣ Swedish ♣ Deep Tissue ♣ Light Touch ♣ 4 hands ♣ &lt;/font&gt; &lt;font color="green" size="5"&gt;✦ Young Girls ☆ Sweet Smile ☆ Magic Hands ✦&lt;/font&gt; &lt;font color="blue" size="5"&gt; Body Massage: $30/30Min. Body Massage: $45/60Min. Body Massage: $75/90Min. 4 Hands Massage: $90/60Min. &lt;/font&gt; &lt;font color="red" size="6"&gt; ☎ CALL NOW:(310)355-1685 &lt;/font&gt; &lt;font color="green" size="4"&gt;10:00am-9:00pm,Open 7 Days a Week&lt;/font&gt; &lt;font color="brown" size="5"&gt;Walk-ins &amp;amp; Appointment Welcome&lt;/font&gt; &lt;font color="blue" size="5"&gt;☛ Location:12946 Hawthorne Blvd,Hawthorne,CA 90250 &lt;a href="http://www.textspace.net/dynamic_blinkie_text/" target="_blank"&gt;&lt;img alt="Dynamic Blinkie Text Generator at TextSpace.net" border="0" src="http://imagizer.imageshack.com/img923/9746/pD9Pyj.gif"/&gt;&lt;/a&gt; &lt;/font&gt;&lt;/div&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/center&gt; </t>
   </si>
   <si>
     <t>🍇🍇🍅🍇🍅🍇🍇🍓🍇🍇_______5 Star Massage 🍇 5 Star Masseuse ☎(310)355-1685 🍅🍇🍅</t>
@@ -617,18 +617,6 @@
     <t>hot sexy Asian 6263428643baare hot 👛🌷👛🌷👛</t>
   </si>
   <si>
-    <t>145387027</t>
-  </si>
-  <si>
-    <t>Hollywood, Los Angeles, San Fernando Valley, Studio City, North Hollywood</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;/b&gt; Hello gentlemen.  I’m playful, fun and the perfect amount of naughty xxx with curves in all the right places. I have a sensual side that will captivate you.☄  Available for Incall in my discrete upscale condo filled with ambient lighting soft music and candles. My photos are current and real, if it’s not me your session is free! Let me melt away all of your tension with my massage techniques, sliding nude b2b with warm oil taking my time until you feel completely relaxed and totally drained💦 Spa like shower and fresh towels available 200hr.  4 Hands available with my sexy girl Kelly.... Check out her shower clip🍒 Guaranteed to relieve any tension 💦  VIP (mutual touch, massage, b2b, body scrub, shower or bathe together in my oversized bath as I continue to pleasure your senses leaving you completely satisfied💦. Very open minded once we meet and click. 300hr HOURS TONIGHT: First available booking 11pm:) Upscale Gentlemen ONLY! Not an escort. No AA. Please text name, age, ethnicity and time including session desired. Text without this info will not receive a response. I look forward to our time together xoxo Nicole 💗818.five six8.3055</t>
-  </si>
-  <si>
-    <t>Cum play with me and my naughty girlfriend tonight🍒 Guaranteed 💦 to release all of your tension💦</t>
-  </si>
-  <si>
     <t>92402407</t>
   </si>
   <si>
@@ -713,6 +701,9 @@
     <t>Super Hot Party Girls!    We're charming, elegant and sweet! Making you feel great is our #1 priority! We'd love to show off our wild sides and fulfill your fantasies      Paige &amp; Rosie  424/337-1866</t>
   </si>
   <si>
+    <t>239</t>
+  </si>
+  <si>
     <t>⭐️⭐️Super Hot Party Girls⭐️⭐️</t>
   </si>
   <si>
@@ -722,7 +713,7 @@
     <t>Downtown, East LA 🔴🔴 Off 710 Fwy 🔴🔴 60 Fwy 🔴🔴🔴🔴🔴🔴🔴, Los Angeles</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;ol&gt; 💟💟▬▬❗️ &lt;a&gt;NEW MANAGER SPECIAL &lt;/a&gt;❗️ ▬▬💟💟&lt;/ol&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;ol&gt; 💟💟▬▬❗️ &lt;a&gt;NEW MANAGER SPECIAL &lt;/a&gt;❗️ ▬▬💟💟&lt;/ol&gt; </t>
   </si>
   <si>
     <t>💟💟💟💟💟⬛⬛📮💚📮💚📮⬛⬛◥◣▂▂ 1 MIN FROM 60 + 710 FWY ▂▂◥◣▂▂ #1 NEW INTERNATIONAL  STAFF ▂▂◥◣ 💟💟💟💟💟⬛⬛📮💚📮💚📮💚📮⬛⬛</t>
@@ -749,7 +740,7 @@
     <t>Los Angeles, Westside, 🔥 Long Beach/Torrance/Gardena/Carson</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt;&lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/k.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/m.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="14"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/s.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="14"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;/a&gt;&lt;/ol&gt;   &lt;font color="RED" face="Palatino Linotype" size="4"&gt;&lt;b&gt;🆕🆕🆕 —— NEW Management &amp;amp; NEW STAFF —— 🆕🆕🆕&lt;/b&gt; &lt;a&gt;——————&lt;i&gt;Sweet and caring Asian &amp;amp; Latina STAFF&lt;/i&gt;&lt;/a&gt; &lt;b&gt;Excellent touch full body massage !&lt;/b&gt; &lt;a&gt;——————&lt;i&gt;Life is too short and get a wonderful massage !&lt;/i&gt;&lt;/a&gt; &lt;b&gt;Relax, unwind, all tension and anxiety&lt;/b&gt; &lt;a&gt;——————&lt;i&gt;High Quality VIP Excellent Service&lt;/i&gt; &lt;ol&gt;&lt;font color="red" size="6"&gt;CALL 👌 ☎☎☎— &lt;b&gt;310 - 272 - 0749&lt;/b&gt;&lt;/font&gt;&lt;/ol&gt;&lt;/a&gt; &lt;/font&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;&lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/k.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/m.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="14"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/s.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="14"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/m.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/s.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/g.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;/a&gt;&lt;/ol&gt;   &lt;font color="RED" face="Palatino Linotype" size="4"&gt; 🆕🆕🆕 —— NEW Management &amp;amp; NEW STAFF —— 🆕🆕🆕  &lt;a&gt;—————— Sweet and caring Asian &amp;amp; Latina STAFF &lt;/a&gt;  Excellent touch full body massage !  &lt;a&gt;—————— Life is too short and get a wonderful massage ! &lt;/a&gt;  Relax, unwind, all tension and anxiety  &lt;a&gt;—————— High Quality VIP Excellent Service  &lt;ol&gt;&lt;font color="red" size="6"&gt;CALL 👌 ☎☎☎—  310 - 272 - 0749 &lt;/font&gt;&lt;/ol&gt;&lt;/a&gt; &lt;/font&gt;</t>
   </si>
   <si>
     <t>1008</t>
@@ -794,10 +785,7 @@
     <t>3105675834</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt; 🎀💥🎀 TOP LINE GIRLS 🎀💥🎀&lt;p&gt; 🌺 We are particularly concerned about health and good feeling.&lt;p&gt; 🌺 Friendly Asian Staff for your enjoyment.&lt;p&gt; 🌺 Our ladies are professionally in massage, discreet and well experienced! &lt;p&gt; 🌺 We never rush our sweet services.&lt;p&gt; 🍀 New Sweet Asian &amp;amp; Latina Girls&lt;p&gt; 🍀 Hot stone / Deep Tissue / Swedish / Walk Back&lt;p&gt; 🍀 Private rooms, clean, elegant and comfortable&lt;p&gt; &lt;a&gt;☏ Tel: (310)567-5834&lt;/a&gt;&lt;p&gt; 💟 Open 7 Days Late&lt;p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/b&gt; </t>
-  </si>
-  <si>
-    <t>103</t>
+    <t xml:space="preserve">   🎀💥🎀 TOP LINE GIRLS 🎀💥🎀&lt;p&gt; 🌺 We are particularly concerned about health and good feeling.&lt;p&gt; 🌺 Friendly Asian Staff for your enjoyment.&lt;p&gt; 🌺 Our ladies are professionally in massage, discreet and well experienced! &lt;p&gt; 🌺 We never rush our sweet services.&lt;p&gt; 🍀 New Sweet Asian &amp;amp; Latina Girls&lt;p&gt; 🍀 Hot stone / Deep Tissue / Swedish / Walk Back&lt;p&gt; 🍀 Private rooms, clean, elegant and comfortable&lt;p&gt; &lt;a&gt;☏ Tel: (310)567-5834&lt;/a&gt;&lt;p&gt; 💟 Open 7 Days Late&lt;p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;  </t>
   </si>
   <si>
     <t>❎❎❎❎❎❎❎ FREE PAMPERED SHOWER ❎❎❎❎❎❎❎ JAPANESE GIRLS ❎❎❎❎❎❎❎ 310-567-5834 ❎❎❎❎❎❎❎ NEW MANAGEMENT</t>
@@ -821,7 +809,7 @@
     <t>1374866 2474971 4136757 3237378787</t>
   </si>
   <si>
-    <t xml:space="preserve">   &lt;center&gt;&lt;i&gt;&lt;b&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413675743.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413675742.jpg"/&gt; &lt;img alt="" border="3" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413675744.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413675745.jpg"/&gt; &lt;a&gt;Click phone # to call Paradise:&lt;a href="tel:323-737-8787" target="_blank"&gt; 323-737-8787&lt;/a&gt; &lt;/a&gt;&lt;/b&gt;&lt;/i&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve">   &lt;center&gt;   &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413675743.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413675742.jpg"/&gt; &lt;img alt="" border="3" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413675744.jpg"/&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1613/13748660/24749715/413675745.jpg"/&gt; &lt;a&gt;Click phone # to call Paradise:&lt;a href="tel:323-737-8787" target="_blank"&gt; 323-737-8787&lt;/a&gt; &lt;/a&gt;  &lt;/center&gt;</t>
   </si>
   <si>
     <t>1101</t>
@@ -860,7 +848,7 @@
     <t>*Beautiful Smile  *Skillful Techniques  *Delightful Personality  *Independent (No Boyfriend)    Call/text anytime  Ask for Nina  You'll love my easy going nature :)    (323) 607 5592</t>
   </si>
   <si>
-    <t>257</t>
+    <t>121</t>
   </si>
   <si>
     <t>Stunning Brunette</t>
@@ -899,7 +887,7 @@
     <t>3106730366</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt; &lt;b&gt;🔲🍎🔲&lt;a&gt; 　HT ACUPRESSURE 　&lt;/a&gt;🔲🍎🔲&lt;ol&gt;&lt;p&gt; 🔲🌆 TEL : &lt;a&gt;310-673-0366 🌆🔲&lt;/a&gt; &lt;/p&gt;&lt;/ol&gt;&lt;p&gt;🌟 Service you will never forget about! &lt;ol&gt;&lt;p&gt;🌟 AMAZING INT. MODEL LINEUPS!!&lt;/p&gt;&lt;/ol&gt; &lt;p&gt;🌟 Beautiful Young Latina, Asian &amp;amp; Blonde Staff&lt;/p&gt;&lt;/p&gt;&lt;/b&gt;&lt;/ol&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;  🔲🍎🔲&lt;a&gt; 　HT ACUPRESSURE 　&lt;/a&gt;🔲🍎🔲&lt;ol&gt;&lt;p&gt; 🔲🌆 TEL : &lt;a&gt;310-673-0366 🌆🔲&lt;/a&gt; &lt;/p&gt;&lt;/ol&gt;&lt;p&gt;🌟 Service you will never forget about! &lt;ol&gt;&lt;p&gt;🌟 AMAZING INT. MODEL LINEUPS!!&lt;/p&gt;&lt;/ol&gt; &lt;p&gt;🌟 Beautiful Young Latina, Asian &amp;amp; Blonde Staff&lt;/p&gt;&lt;/p&gt; &lt;/ol&gt;</t>
   </si>
   <si>
     <t>1103</t>
@@ -962,7 +950,7 @@
     <t>1183579</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="152" src="http://dl4.glitter-graphics.net/pub/570/570554s0rwvjf9dh.gif" width="90"/&gt;&lt;/a&gt; &lt;font color="red" face="Palatino Linotype" size="6"&gt;[[ TOP Service ]]•==•[[ Royal Treatment ]] &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/l.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/x.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/s.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/l.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/x.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/g.gif"/&gt;&lt;/a&gt; &lt;font color="red" size="5"&gt;The Ultimate Satisfaction &amp;amp; Relaxation &lt;font color="green"&gt;You will experience a totally different relaxed and energetic touch &lt;font color="navy" size="5"&gt;&lt;b&gt;&lt;a href="http://maps.google.com/maps?q=10719+Inglewood+Ave+Lennox+CA+90304&amp;amp;hl=en&amp;amp;ll=33.936951,-118.357987&amp;amp;spn=0.016734,0.038409&amp;amp;sll=37.0625,-95.677068&amp;amp;sspn=32.748002,78.662109&amp;amp;hnear=10719+Inglewood+Ave,+Lennox,+California+90304&amp;amp;t=m&amp;amp;z=15" target="_blank"&gt;&lt;b&gt;MAP : CLICK HERE [10719 Inglewood Ave - Lennox CA 90304 ]&lt;/b&gt;&lt;/a&gt; &lt;font color="purple" size="4"&gt;[ Close to &lt;b&gt;LAX&lt;/b&gt; ] &lt;font color="olive" size="4"&gt;Lennox Ave + Inglewood Ave [ Inside Lazaro Center ] &lt;font color="blue" size="6"&gt; 310 - 412 - 5075 &lt;font color="olive" size="4"&gt;Open 10am-9pm/ 7 days a week &lt;font color="red"&gt;* Meet Asian &amp;amp; Latina Staffs &lt;font color="teal"&gt;Don't miss this opportunity&lt;/font&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/b&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="152" src="http://dl4.glitter-graphics.net/pub/570/570554s0rwvjf9dh.gif" width="90"/&gt;&lt;/a&gt; &lt;font color="red" face="Palatino Linotype" size="6"&gt;[[ TOP Service ]]•==•[[ Royal Treatment ]] &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/l.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/x.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/s.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/l.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/x.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/i.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/g.gif"/&gt;&lt;/a&gt; &lt;font color="red" size="5"&gt;The Ultimate Satisfaction &amp;amp; Relaxation &lt;font color="green"&gt;You will experience a totally different relaxed and energetic touch &lt;font color="navy" size="5"&gt; &lt;a href="http://maps.google.com/maps?q=10719+Inglewood+Ave+Lennox+CA+90304&amp;amp;hl=en&amp;amp;ll=33.936951,-118.357987&amp;amp;spn=0.016734,0.038409&amp;amp;sll=37.0625,-95.677068&amp;amp;sspn=32.748002,78.662109&amp;amp;hnear=10719+Inglewood+Ave,+Lennox,+California+90304&amp;amp;t=m&amp;amp;z=15" target="_blank"&gt; MAP : CLICK HERE [10719 Inglewood Ave - Lennox CA 90304 ] &lt;/a&gt; &lt;font color="purple" size="4"&gt;[ Close to  LAX  ] &lt;font color="olive" size="4"&gt;Lennox Ave + Inglewood Ave [ Inside Lazaro Center ] &lt;font color="blue" size="6"&gt; 310 - 412 - 5075 &lt;font color="olive" size="4"&gt;Open 10am-9pm/ 7 days a week &lt;font color="red"&gt;* Meet Asian &amp;amp; Latina Staffs &lt;font color="teal"&gt;Don't miss this opportunity&lt;/font&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt; &lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/center&gt;</t>
   </si>
   <si>
     <t>💦🌈💦🌈💦 ⓦⓞⓝ SPA 👉▬▬🌈💦🐝▬🐝✅CLICK HERE 💨💨 ►🌈💦🐝►— —💨💨— ► Special ►🚗💨  5 MIN. FROM ✈ LAX</t>
@@ -1016,7 +1004,7 @@
     <t>3238510322 1183498 1184117</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;font color="#FF00FF" size="5"&gt; &lt;center&gt; &lt;font color="navy" size="5"&gt;&lt;b&gt;&lt;font color="#FF00FF" size="5"&gt;🔥🔥 4 NEW STAFFS ARE HERE FOR YOU! 🔥🔥 &lt;/font&gt;&lt;a&gt;&lt;font color="teal" size="5"&gt; &lt;/font&gt;&lt;font color="navy" size="5"&gt;&lt;/font&gt; &lt;b&gt;&lt;font color="navy" size="5"&gt;🔲⬛️🔲MOMO SPA 🔲⬛️🔲 =♥=&lt;font color="red" size="5"&gt; BEST SERVICE GUARANTEED =♥=&lt;font color="navy" size="4"&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/b&gt;&lt;/a&gt; ✅ NEVER RUSHED ✅ POPULAR STAFF ✅ CHOOSE YOUR WAY &lt;/b&gt;&lt;/font&gt;&lt;hr/&gt; &lt;font color="olive" size="4"&gt;🔷 5 Star Level of Pampering! Perfect From Beginning to End 🔷 Experienced pretty INTERNATIONAL therapeutic bodywork ! 🌟 &lt;a&gt;OPEN (10AM TO 10PM) 🌟&lt;/a&gt;&lt;/font&gt; &lt;hr/&gt;&lt;a&gt;&lt;font color="#FF00FF" size="5"&gt;☎ TEL :&lt;b&gt; 323-851-0322 ☎&lt;/b&gt;&lt;/font&gt;&lt;/a&gt;&lt;hr/&gt; &lt;a href="https://www.google.com/maps?q=7551+1%2F2+Santa+Monica+Bl+West+Hollywood+CA+90046&amp;amp;hl=en&amp;amp;ll=34.090696,-118.349833&amp;amp;spn=0.023457,0.045447&amp;amp;sll=34.020479,-118.411732&amp;amp;sspn=0.726189,0.85968&amp;amp;hnear=7551+1%2F2+Santa+Monica+Blvd,+Los+Angeles,+California+90025&amp;amp;t=m&amp;amp;z=15" target="_blank"&gt; &lt;font color="teal" size="5"&gt;🔷 7551 1/2 Santa Monica Bl West Hollywood CA 90046 &lt;font color="#FF00FF" size="6"&gt;🔲🌟 MAP 4 CLICK HERE ( FREE PARKING) 🌟🔲&lt;/font&gt;&lt;/font&gt;&lt;/a&gt;&lt;/center&gt;&lt;/font&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;font color="#FF00FF" size="5"&gt; &lt;center&gt; &lt;font color="navy" size="5"&gt; &lt;font color="#FF00FF" size="5"&gt;🔥🔥 4 NEW STAFFS ARE HERE FOR YOU! 🔥🔥 &lt;/font&gt;&lt;a&gt;&lt;font color="teal" size="5"&gt; &lt;/font&gt;&lt;font color="navy" size="5"&gt;&lt;/font&gt;  &lt;font color="navy" size="5"&gt;🔲⬛️🔲MOMO SPA 🔲⬛️🔲 =♥=&lt;font color="red" size="5"&gt; BEST SERVICE GUARANTEED =♥=&lt;font color="navy" size="4"&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt; &lt;/a&gt; ✅ NEVER RUSHED ✅ POPULAR STAFF ✅ CHOOSE YOUR WAY  &lt;/font&gt;&lt;hr/&gt; &lt;font color="olive" size="4"&gt;🔷 5 Star Level of Pampering! Perfect From Beginning to End 🔷 Experienced pretty INTERNATIONAL therapeutic bodywork ! 🌟 &lt;a&gt;OPEN (10AM TO 10PM) 🌟&lt;/a&gt;&lt;/font&gt; &lt;hr/&gt;&lt;a&gt;&lt;font color="#FF00FF" size="5"&gt;☎ TEL :  323-851-0322 ☎ &lt;/font&gt;&lt;/a&gt;&lt;hr/&gt; &lt;a href="https://www.google.com/maps?q=7551+1%2F2+Santa+Monica+Bl+West+Hollywood+CA+90046&amp;amp;hl=en&amp;amp;ll=34.090696,-118.349833&amp;amp;spn=0.023457,0.045447&amp;amp;sll=34.020479,-118.411732&amp;amp;sspn=0.726189,0.85968&amp;amp;hnear=7551+1%2F2+Santa+Monica+Blvd,+Los+Angeles,+California+90025&amp;amp;t=m&amp;amp;z=15" target="_blank"&gt; &lt;font color="teal" size="5"&gt;🔷 7551 1/2 Santa Monica Bl West Hollywood CA 90046 &lt;font color="#FF00FF" size="6"&gt;🔲🌟 MAP 4 CLICK HERE ( FREE PARKING) 🌟🔲&lt;/font&gt;&lt;/font&gt;&lt;/a&gt;&lt;/center&gt;&lt;/font&gt;&lt;/center&gt;</t>
   </si>
   <si>
     <t>✅✅✅📳📳📳📳📳📳📳📳📳✅✅✅ ▃▃MOMO ▃▃⚫🔴 ULTIMATE EXPERIENCE▃▃⚫🔴  FREE PARKING  ▃▃⚫🔴✅✅✅📳📳📳📳📳📳📳📳📳✅✅✅</t>
@@ -1064,7 +1052,7 @@
     <t>1372023 2466502 4135717 2138075615</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;img alt="" border="3" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413571706.jpg"/&gt; &lt;i&gt;&lt;font color="green"&gt;&lt;b&gt;▬▬▬💜🔲💚▬▬▬　Pinkull Spa: 213-807-5615 ▬▬▬💜🔲💚▬▬▬&lt;/b&gt;&lt;/font&gt;&lt;/i&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;img alt="" border="3" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413571706.jpg"/&gt;  &lt;font color="green"&gt; ▬▬▬💜🔲💚▬▬▬　Pinkull Spa: 213-807-5615 ▬▬▬💜🔲💚▬▬▬ &lt;/font&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>▬▬▬ 💕☪💕☪💕☪▬▬ ______ _ 💚💔💙. _ _💜. New Staff_ 💔_213-807-5615______💔 ▬▬▬💕☪💕☪💕☪ ▬▬▬</t>
@@ -1097,7 +1085,7 @@
     <t>Welcome to a relaxing and reviving professional massage, at our clean and friendly place, today we are open late for you!  Just call us at: 1 (323) 852-1783, you could also make appointment,if you like :)</t>
   </si>
   <si>
-    <t>437</t>
+    <t>126</t>
   </si>
   <si>
     <t>Nice Massage Place-Open Late</t>
@@ -1139,10 +1127,10 @@
     <t>Downtown, GLENDAL, BURBANK, DwnTwn, ALL LA Area 💥💯, Los Angeles</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;b&gt;100% Real!!!&lt;/b&gt;&lt;/b&gt;    &lt;b&gt;&lt;a&gt;Check out here, Your sexy new busty girls! I'm young sexy girl always love to have some fun. No rushed with me. Call now and Let's meet up.&lt;/a&gt;&lt;/b&gt;  </t>
-  </si>
-  <si>
-    <t>130</t>
+    <t xml:space="preserve">   100% Real!!!       &lt;a&gt;Check out here, Your sexy new busty girls! I'm young sexy girl always love to have some fun. No rushed with me. Call now and Let's meet up.&lt;/a&gt;   </t>
+  </si>
+  <si>
+    <t>129</t>
   </si>
   <si>
     <t>💥💯💥💯💥 3 World Class Beauties 💥💯💥💯💥 Hot College Asian/Latina New in Town 💥💯💥💯💥 24/7 💥💯💥💯💥 Real Fun 💥💯💥💯💥 - 21</t>
@@ -1172,7 +1160,7 @@
     <t>3109564475</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi my name is Grace. I'm a certified Massage Therapist and Reiki Master, a passionate healer and I specialize in Sensual Touch, Swedish &amp; Sports Massage.  I've had a successful therapeutic massage and reiki practice for over 10 years, which started in Australia.    I'm blonde, womanly and 100% natural! Take some time out and pamper yourself, I offer you my loving touch with long sensual strokes that will unwind you and allow you to release into the wild cosmos. My sacred sessions may also include reiki, healing attunement, and breath work if desired, though my main focus is massage unless requested otherwise.    My hours are 1 - 7pm, unless prebooked. My shortest session time is 1 hour, though I highly recommend the 90 minutes to really take the time and go into heavenly places.    When you contact me please be willing to be screened.  All is confidential. I host in a discreet private space in West Hollywood that is energetically clear and ready for you.    Contact me to book (310) 956-4475     &lt;i&gt; "I thought I was in heaven, then I opened my eyes and realized I was still alive, and here with you! Wow!" S.D Los Angeles "That was the deepest healing massage I think I've ever had, all wrapped in feminine curvaceous beauty, thank you!" A.D New York&lt;/i&gt; </t>
+    <t xml:space="preserve">Hi my name is Grace. I'm a certified Massage Therapist and Reiki Master, a passionate healer and I specialize in Sensual Touch, Swedish &amp; Sports Massage.  I've had a successful therapeutic massage and reiki practice for over 10 years, which started in Australia.    I'm blonde, womanly and 100% natural! Take some time out and pamper yourself, I offer you my loving touch with long sensual strokes that will unwind you and allow you to release into the wild cosmos. My sacred sessions may also include reiki, healing attunement, and breath work if desired, though my main focus is massage unless requested otherwise.    My hours are 1 - 7pm, unless prebooked. My shortest session time is 1 hour, though I highly recommend the 90 minutes to really take the time and go into heavenly places.    When you contact me please be willing to be screened.  All is confidential. I host in a discreet private space in West Hollywood that is energetically clear and ready for you.    Contact me to book (310) 956-4475       "I thought I was in heaven, then I opened my eyes and realized I was still alive, and here with you! Wow!" S.D Los Angeles "That was the deepest healing massage I think I've ever had, all wrapped in feminine curvaceous beauty, thank you!" A.D New York  </t>
   </si>
   <si>
     <t>Sensual full body massage with a passionate healer</t>
@@ -1187,7 +1175,7 @@
     <t>3238306193 4242280490</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;i&gt; Visiting 3 Days Only Don't Miss Out!!! POLARIS 323-830-6193 I'm Exactly What You Have Been Yearing For!ⅿ συτgσⅰηg, ραssⅰσηατε, ＆ ριαγfυℓ naughty Nuru Prost@te!!😘 rєαdγ ２ gⅰνε υ α ５☆ τrεατⅿεητ👑 🍑🍭 come get a taste of this addictive treat⭐ ￼ 5'5", 155 lbs, FF Busty. I will give you the BEST! Best service, BETTER than any you ever had. ┈━═☆I am never in a rush. No Drama &amp;amp; totally discreet. Don't miss out. My Breast are a NATURAL 34'FF 💋No explicit talk/text or call will be terminated!! POLARIS 424-228-0490&lt;/i&gt;</t>
+    <t xml:space="preserve">   Visiting 3 Days Only Don't Miss Out!!! POLARIS 323-830-6193 I'm Exactly What You Have Been Yearing For!ⅿ συτgσⅰηg, ραssⅰσηατε, ＆ ριαγfυℓ naughty Nuru Prost@te!!😘 rєαdγ ２ gⅰνε υ α ５☆ τrεατⅿεητ👑 🍑🍭 come get a taste of this addictive treat⭐ ￼ 5'5", 155 lbs, FF Busty. I will give you the BEST! Best service, BETTER than any you ever had. ┈━═☆I am never in a rush. No Drama &amp;amp; totally discreet. Don't miss out. My Breast are a NATURAL 34'FF 💋No explicit talk/text or call will be terminated!! POLARIS 424-228-0490 </t>
   </si>
   <si>
     <t>😘🚘👄❤Nuru Bodyslide My Huge Oiled Up BooBies All Over Your Body Slipping &amp; Sl!ding...Prost@te�❤👄</t>
@@ -1202,7 +1190,7 @@
     <t>3238830955 0907591 1183541689</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;a&gt; 🔲 🔞🔞— JUST RELAX SPA—🔞🔞 🔲&lt;/a&gt; &lt;ol&gt; 💖Sweet soft hands to relax your body💖 💖Hot Latina &amp;amp; Sweet Asian &amp;amp; Sexy Europeans💖 &lt;/ol&gt; &lt;a&gt; 🔲 🔲 ║☎️— Tel: 323-883-0955 - CALL NOW! 🔲 🔲 ║🔴🔴— Open 7Days 9:30am –2am(Late Night) &lt;ol&gt;💝$35 Special before 11:30 AM - 1/2 hour $35 &lt;/ol&gt; 🔲 🔲 ║🔴🔴—who are looking for a "SENSATIONAL" time. &lt;/a&gt;&lt;ol&gt;★ Beautiful NEW UPSCALE International spa &lt;a&gt;Beautiful and Attractive Girls everyday !&lt;/a&gt; &lt;/ol&gt; &lt;a href="https://www.google.com/maps/place/7440+Santa+Monica+Blvd,+West+Hollywood,+CA+90046/@34.0907591,-118.3541689,17.06z/data=!4m2!3m1!1s0x80c2bed0cb5d9a01:0x40345f300ed4d421" target="_blank"&gt; 🔲 🔲 ║🔴🔴— LOCATION MAP ( CLICK )&lt;/a&gt; 🔲 🔲 ║🔴🔴— ►►► 7440 Santa Monica Blvd W. Hollywood CA 90046 &lt;a&gt;🚘🚘🚘 Shared parking lot with Fat Burger&lt;/a&gt; &lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;a&gt; 🔲 🔞🔞— JUST RELAX SPA—🔞🔞 🔲&lt;/a&gt; &lt;ol&gt; 💖Sweet soft hands to relax your body💖 💖Hot Latina &amp;amp; Sweet Asian &amp;amp; Sexy Europeans💖 &lt;/ol&gt; &lt;a&gt; 🔲 🔲 ║☎️— Tel: 323-883-0955 - CALL NOW! 🔲 🔲 ║🔴🔴— Open 7Days 9:30am –2am(Late Night) &lt;ol&gt;💝$35 Special before 11:30 AM - 1/2 hour $35 &lt;/ol&gt; 🔲 🔲 ║🔴🔴—who are looking for a "SENSATIONAL" time. &lt;/a&gt;&lt;ol&gt;★ Beautiful NEW UPSCALE International spa &lt;a&gt;Beautiful and Attractive Girls everyday !&lt;/a&gt; &lt;/ol&gt; &lt;a href="https://www.google.com/maps/place/7440+Santa+Monica+Blvd,+West+Hollywood,+CA+90046/@34.0907591,-118.3541689,17.06z/data=!4m2!3m1!1s0x80c2bed0cb5d9a01:0x40345f300ed4d421" target="_blank"&gt; 🔲 🔲 ║🔴🔴— LOCATION MAP ( CLICK )&lt;/a&gt; 🔲 🔲 ║🔴🔴— ►►► 7440 Santa Monica Blvd W. Hollywood CA 90046 &lt;a&gt;🚘🚘🚘 Shared parking lot with Fat Burger&lt;/a&gt;  </t>
   </si>
   <si>
     <t>▐ 💟▐ ▃▃▃▃▃▃▃CLICK HERE ▃▃▃▃▃▃▃▃▃▐ 💖▐ HOT BABY DOLLS▐ 💖▐ ▃▃▃▃▃▃▃▃▃▃▃▃ Latina&amp;Asian;&amp;Europeans; ▃▃▃▃▃▃▃▃</t>
@@ -1229,7 +1217,7 @@
     <t>Los Angeles, Pasadena, Pasadena,La downtown,Glendale,Burbank</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt;&lt;h1&gt;&lt;i&gt;&lt;font color="red"&gt;🍁🍁🍁PASADENA DAY SPA🍁🍁🍁 &lt;p&gt;&lt;font color="blue"&gt;🔥NEW HOT GIRLS 🔥Unforgettable Angel Touch &lt;p&gt; Most beautiful, sweet and wonderful young Asian girls will treat you like 👑king👑 &lt;p&gt;Four hands massage&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;p&gt;&lt;font color="fuchsia"&gt;one hour~~~$50 &lt;p&gt;Only Table shower is $20 &lt;p&gt;Full body massage/Free table shower &lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;p&gt;&lt;font color="red"&gt;☎☎️ @ (626)403-6666&lt;/font&gt; ☎️☎️ &lt;p&gt;1143 S Fair Oaks Ave, Pasadena CA 91105 &lt;p&gt;&lt;a href="http://www.psdspa.com/" target="_blank"&gt;www.psdspa.com&lt;/a&gt; &lt;p&gt;&lt;font color="blue"&gt;Beauty European style private Rooms &lt;p&gt;Massage Pasadena Massage Pasadena, Pasadena Massage Los angeles &lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt;&lt;/i&gt;&lt;/h1&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt;&lt;h1&gt; &lt;font color="red"&gt;🍁🍁🍁PASADENA DAY SPA🍁🍁🍁 &lt;p&gt;&lt;font color="blue"&gt;🔥NEW HOT GIRLS 🔥Unforgettable Angel Touch &lt;p&gt; Most beautiful, sweet and wonderful young Asian girls will treat you like 👑king👑 &lt;p&gt;Four hands massage&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;p&gt;&lt;font color="fuchsia"&gt;one hour~~~$50 &lt;p&gt;Only Table shower is $20 &lt;p&gt;Full body massage/Free table shower &lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;p&gt;&lt;font color="red"&gt;☎☎️ @ (626)403-6666&lt;/font&gt; ☎️☎️ &lt;p&gt;1143 S Fair Oaks Ave, Pasadena CA 91105 &lt;p&gt;&lt;a href="http://www.psdspa.com/" target="_blank"&gt;www.psdspa.com&lt;/a&gt; &lt;p&gt;&lt;font color="blue"&gt;Beauty European style private Rooms &lt;p&gt;Massage Pasadena Massage Pasadena, Pasadena Massage Los angeles &lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;/h1&gt;&lt;/center&gt;</t>
   </si>
   <si>
     <t>1025</t>
@@ -1277,7 +1265,7 @@
     <t>3232391228 3233780840</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt;&lt;ol&gt;&lt;p&gt; &lt;b&gt;💗 DELUX THEARPY 💗&lt;p&gt; LATINA &amp;amp; WHITE STAFF&lt;p&gt; FULL BODY RELAXING TREATMENT &lt;p&gt; ☎️ &lt;a&gt;323-239-1228 / 323-378-0840&lt;/a&gt; LOCATION : FLORENCE AVE , 90201 &lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/b&gt;&lt;/p&gt;&lt;/ol&gt;&lt;/ol&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;&lt;ol&gt;&lt;p&gt;  💗 DELUX THEARPY 💗&lt;p&gt; LATINA &amp;amp; WHITE STAFF&lt;p&gt; FULL BODY RELAXING TREATMENT &lt;p&gt; ☎️ &lt;a&gt;323-239-1228 / 323-378-0840&lt;/a&gt; LOCATION : FLORENCE AVE , 90201 &lt;/p&gt;&lt;/p&gt;&lt;/p&gt; &lt;/p&gt;&lt;/ol&gt;&lt;/ol&gt;</t>
   </si>
   <si>
     <t>⬛💗⬛💗⬛💗⬛💗⬛💗⬛💗⬛💗⬛💗⬛▃▃LATINA &amp; WHITE  STAFF▃▃ SPECIAL $40 / 40MIN▃ ⬛💗⬛💗⬛💗⬛💗⬛💗⬛💗⬛💗⬛</t>
@@ -1295,7 +1283,7 @@
     <t>3104010772</t>
   </si>
   <si>
-    <t>MassageTableFun: &lt;b&gt;120/H &lt;/b&gt;  White/38/CMT   &lt;b&gt;No discuss service/$ No:"massage/ad/how much" NO REVIEWS&lt;/b&gt; YES=relax&amp;relief;  Alexa 310-401-0772</t>
+    <t>MassageTableFun:  120/H    White/38/CMT    No discuss service/$ No:"massage/ad/how much" NO REVIEWS  YES=relax&amp;relief;  Alexa 310-401-0772</t>
   </si>
   <si>
     <t>_ ______________ -DECK THE BALLS-___ _____new pics!_________ Blonde At Your Service___</t>
@@ -1322,7 +1310,7 @@
     <t>3234543707</t>
   </si>
   <si>
-    <t>Hi,do u like to get blissful massage today?  I know you work hard and need to relax &amp; get rid of everyday stresses ...  🌺 Swedish Massage 🌺  🌺 Deep tissue Massage 🌺  🌺 Thai Yoga Massage 🌺  🌺 Aroma Therapy &amp; Body Scrub 🌺  Perfect massage , High quality Spa experience with no need to travel &lt;b&gt; 323-454-3707 ==&amp;gt; NINA &lt;/b&gt;     Residences &amp; Major Hotel ( DTLA, Beverly Hills, Century city, Brentwood, WEHO, Santa Monica, Marina Del Ray , PCH, Malibu, LAX, .. ).</t>
+    <t>Hi,do u like to get blissful massage today?  I know you work hard and need to relax &amp; get rid of everyday stresses ...  🌺 Swedish Massage 🌺  🌺 Deep tissue Massage 🌺  🌺 Thai Yoga Massage 🌺  🌺 Aroma Therapy &amp; Body Scrub 🌺  Perfect massage , High quality Spa experience with no need to travel   323-454-3707 ==&amp;gt; NINA       Residences &amp; Major Hotel ( DTLA, Beverly Hills, Century city, Brentwood, WEHO, Santa Monica, Marina Del Ray , PCH, Malibu, LAX, .. ).</t>
   </si>
   <si>
     <t>💝💗 Beyond Bliss .. BesT .. Full Bod¥ MA$$agE 💆💆 [ Outcall / LAX/ Marina Del Ray/ Beverly Hills/ ] 💝💗</t>
@@ -1358,7 +1346,7 @@
     <t>3108227837</t>
   </si>
   <si>
-    <t>Very nice massage therapists to sooth and relax your muscles.    -- Swedish, Deep Tissue, Shiatsu -- relaxing massage    -- &lt;b&gt;Calm your mind and feel your troubles melt away &lt;/b&gt;  Open every day 10:00 - 8:30    Tel:310.822.7837</t>
+    <t>Very nice massage therapists to sooth and relax your muscles.    -- Swedish, Deep Tissue, Shiatsu -- relaxing massage    --  Calm your mind and feel your troubles melt away    Open every day 10:00 - 8:30    Tel:310.822.7837</t>
   </si>
   <si>
     <t>Asian Touch  Marina del Rey</t>
@@ -1370,7 +1358,7 @@
     <t>Downey, Downtown, Long Beach, Los Angeles, Norwalk, 🎯🎯🎯Downey/Huntington Park/South Gate</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;p&gt;&lt;b&gt; 🎆🎆🎆 DOWNY MASSAGE 🎆🎆🎆&lt;p&gt;💘💘💘YOU WONT BE DISAPPOINTED!💘💘💘&lt;p&gt; Beautiful skilled YOUNG Latina &amp;amp; Asian girls.&lt;p&gt; 💕💕 GREAT TIME GUARANTEED.💕💕💜💋💕&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/b&gt;&lt;/p&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;p&gt;  🎆🎆🎆 DOWNY MASSAGE 🎆🎆🎆&lt;p&gt;💘💘💘YOU WONT BE DISAPPOINTED!💘💘💘&lt;p&gt; Beautiful skilled YOUNG Latina &amp;amp; Asian girls.&lt;p&gt; 💕💕 GREAT TIME GUARANTEED.💕💕💜💋💕&lt;/p&gt;&lt;/p&gt;&lt;/p&gt; &lt;/p&gt; </t>
   </si>
   <si>
     <t>💥DOWNEY MASSAGE💥▃▃▃▃▃▃▃▃▃▃▃▃▃ ▃▃▃▃▃▃▃▃▃▃▃▃💖Latina&amp;Asian; CLICK HERE💖▃▃▃▃▃▃▃▃▃▃▃▃▃▃ ▃▃▃▃▃▃▃▃▃▃▃▃▃▃</t>
@@ -1385,7 +1373,7 @@
     <t>1104243970</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;table align="center" border="0"&gt; &lt;tr&gt; &lt;td colspan="3"&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;❤❤❤ H2O MASSAGE ❤❤❤&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h1&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;td width="90%"&gt; &lt;h4 align="justify"&gt; &lt;span style="color:rgb(255,0,0);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font face="Impact" size="+2"&gt;Your Zone Of Comfort From The Storm Of Daily Stress Wait For You ❤~ Find Lovely And Professional Asian Girls Helping You Heal ❤~ New or Visiting/Re-Visiting Therapists Are Arriving To Welcome YOU To Your Refuge From Worry And Strife❤~ You Will Find A Youthful Expert Experienced And Caring Lady ~❤ Find Pampered Treatment With Her Magic Touch ❤~ Exquisite Ladies Trained in the Arts of Massage and Stress Treatment ❤ Caring Girls Who Never Rush Your Service Wait For You ❤~ She Cares For You Right from Stressed Out Start to Smiling Finish ❤~&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h4&gt; &lt;h4 style="text-align: center; "&gt; &lt;span style="color:rgb(255,0,0);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font face="Impact" size="+2"&gt;&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;b style="font-size: 24px; color: black; text-align: center; "&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;HOURS OF OPERATION&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h4&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;/span&gt;&lt;b style="font-size: 24px; "&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;Open Monday thru Thursday&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h1&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; 10:00 AM To 10:00 PM &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h3&gt; &lt;/td&gt; &lt;td width="5%"&gt; &lt;u&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/u&gt;&lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;td&gt; &lt;table align="center" border="0"&gt; &lt;tr&gt; &lt;td width="20%"&gt; &lt;h1 style="color:black;text-align:center;"&gt;  &lt;/h1&gt; &lt;h1 style="text-align:center;"&gt; &lt;span style="font-size:14px;line-height:21px;"&gt;&lt;/span&gt;&lt;/h1&gt; &lt;center&gt; &lt;p style="text-align:center;"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;img src="http://img04.taobaocdn.com/imgextra/i4/1104243970/T24sdUXDVXXXXXXXXX_!!1104243970.jpeg"/&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/p&gt; &lt;center&gt; &lt;p&gt;  &lt;/p&gt; &lt;/center&gt; &lt;h1&gt; &lt;span style="font-size:14px;line-height:21px;"&gt;&lt;/span&gt;&lt;/h1&gt; &lt;/center&gt; &lt;/td&gt; &lt;td width="60%"&gt; &lt;p&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;&lt;big&gt;We offer:&lt;/big&gt; &lt;/big&gt; &lt;/big&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Walking Massage&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Shiatsu&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Unscented Oil&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Relaxation Therapy&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Soft Touch&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Swedish&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Chinese Acupressure&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Deep Tissue&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Table Shower Available&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Hot Shower Available&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Climate Controlled Comfort&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Youthful Asian Ladies To Treat You&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;/ul&gt; &lt;/td&gt; &lt;td width="40%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/td&gt; &lt;td width="5%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td colspan="3"&gt; &lt;h1 style="color:black;text-align:center;"&gt;  &lt;/h1&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;td width="90%"&gt; &lt;center&gt; &lt;p style="text-align:center;"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;a href="https://maps.google.com/maps?q=1011+N+Fairfax+Ave.2764; +764;West+Hollywood,+CA+90046&amp;amp;ie=UTF-8&amp;amp;ei=17mVUu3bAsz4oASUioIg&amp;amp;ved=0CAgQ_AUoAg" target="_blank"&gt;&lt;img height="85" src="http://img03.taobaocdn.com/imgextra/i3/1104243970/T2RkXQXDhXXXXXXXXX_!!1104243970.png" style="float:none;margin-top:0px;margin-right:0px;margin-bottom:0px;margin-left:0px;" width="850"/&gt;&lt;/a&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; Walk-ins Are Always Welcome. But, You Will Desire To Have Your Favorite Lady Ready And Waiting To Renew Your Treatment ❤ Call Ahead And You Can Check On The Schedule Of the New/Visiting Therapist Also.&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/p&gt; &lt;/center&gt; &lt;/td&gt; &lt;td width="5%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt;  &lt;p&gt;  &lt;/p&gt;   Park in Front or 1 Hour Free Parking Behind Our Building  </t>
+    <t xml:space="preserve"> &lt;table align="center" border="0"&gt; &lt;tr&gt; &lt;td colspan="3"&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;    ❤❤❤ H2O MASSAGE ❤❤❤    &lt;/span&gt;&lt;/h1&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt;          &lt;/td&gt; &lt;td width="90%"&gt; &lt;h4 align="justify"&gt; &lt;span style="color:rgb(255,0,0);"&gt;      &lt;font face="Impact" size="+2"&gt;Your Zone Of Comfort From The Storm Of Daily Stress Wait For You ❤~ Find Lovely And Professional Asian Girls Helping You Heal ❤~ New or Visiting/Re-Visiting Therapists Are Arriving To Welcome YOU To Your Refuge From Worry And Strife❤~ You Will Find A Youthful Expert Experienced And Caring Lady ~❤ Find Pampered Treatment With Her Magic Touch ❤~ Exquisite Ladies Trained in the Arts of Massage and Stress Treatment ❤ Caring Girls Who Never Rush Your Service Wait For You ❤~ She Cares For You Right from Stressed Out Start to Smiling Finish ❤~&lt;/font&gt;      &lt;/span&gt;&lt;/h4&gt; &lt;h4 style="text-align: center; "&gt; &lt;span style="color:rgb(255,0,0);"&gt;      &lt;font face="Impact" size="+2"&gt;&lt;/font&gt;      &lt;/span&gt;&lt;b style="font-size: 24px; color: black; text-align: center; "&gt;    HOURS OF OPERATION     &lt;/h4&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;/span&gt;&lt;b style="font-size: 24px; "&gt;    Open Monday thru Thursday     &lt;/h1&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;      10:00 AM To 10:00 PM      &lt;/span&gt;&lt;/h3&gt; &lt;/td&gt; &lt;td width="5%"&gt;            &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt;          &lt;/td&gt; &lt;td&gt; &lt;table align="center" border="0"&gt; &lt;tr&gt; &lt;td width="20%"&gt; &lt;h1 style="color:black;text-align:center;"&gt;  &lt;/h1&gt; &lt;h1 style="text-align:center;"&gt; &lt;span style="font-size:14px;line-height:21px;"&gt;&lt;/span&gt;&lt;/h1&gt; &lt;center&gt; &lt;p style="text-align:center;"&gt;     &lt;img src="http://img04.taobaocdn.com/imgextra/i4/1104243970/T24sdUXDVXXXXXXXXX_!!1104243970.jpeg"/&gt;    &lt;/p&gt; &lt;center&gt; &lt;p&gt;  &lt;/p&gt; &lt;/center&gt; &lt;h1&gt; &lt;span style="font-size:14px;line-height:21px;"&gt;&lt;/span&gt;&lt;/h1&gt; &lt;/center&gt; &lt;/td&gt; &lt;td width="60%"&gt; &lt;p&gt;      &lt;big&gt;&lt;big&gt;&lt;big&gt;We offer:&lt;/big&gt; &lt;/big&gt; &lt;/big&gt;      &lt;/p&gt; &lt;ul&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Walking Massage&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Shiatsu&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;       &lt;big&gt;&lt;big&gt;Unscented Oil&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;       &lt;big&gt;&lt;big&gt;Relaxation Therapy&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;       &lt;big&gt;&lt;big&gt;Soft Touch&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Swedish&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;       &lt;big&gt;&lt;big&gt;Chinese Acupressure&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;       &lt;big&gt;&lt;big&gt;Deep Tissue&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Table Shower Available&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;       &lt;big&gt;&lt;big&gt;Hot Shower Available&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;       &lt;big&gt;&lt;big&gt;Climate Controlled Comfort&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;       &lt;big&gt;&lt;big&gt;Youthful Asian Ladies To Treat You&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;/ul&gt; &lt;/td&gt; &lt;td width="40%"&gt;            &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/td&gt; &lt;td width="5%"&gt;            &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td colspan="3"&gt; &lt;h1 style="color:black;text-align:center;"&gt;  &lt;/h1&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt;            &lt;/td&gt; &lt;td width="90%"&gt; &lt;center&gt; &lt;p style="text-align:center;"&gt;      &lt;a href="https://maps.google.com/maps?q=1011+N+Fairfax+Ave.2764; +764;West+Hollywood,+CA+90046&amp;amp;ie=UTF-8&amp;amp;ei=17mVUu3bAsz4oASUioIg&amp;amp;ved=0CAgQ_AUoAg" target="_blank"&gt;&lt;img height="85" src="http://img03.taobaocdn.com/imgextra/i3/1104243970/T2RkXQXDhXXXXXXXXX_!!1104243970.png" style="float:none;margin-top:0px;margin-right:0px;margin-bottom:0px;margin-left:0px;" width="850"/&gt;&lt;/a&gt;           Walk-ins Are Always Welcome. But, You Will Desire To Have Your Favorite Lady Ready And Waiting To Renew Your Treatment ❤ Call Ahead And You Can Check On The Schedule Of the New/Visiting Therapist Also.     &lt;/p&gt; &lt;/center&gt; &lt;/td&gt; &lt;td width="5%"&gt;            &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt;  &lt;p&gt;  &lt;/p&gt;   Park in Front or 1 Hour Free Parking Behind Our Building  </t>
   </si>
   <si>
     <t>💖Thursday Therapy 💝Ease Tension Massage 💆💝Happy Trim Youthful Asian Girls💝 🌹 Reduce Stress🌹</t>
@@ -1487,7 +1475,7 @@
     <t>3103256178</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;GOLDEN SPA&lt;/b&gt;   &lt;b&gt;Call Now &lt;u&gt;310-325-6178&lt;/u&gt;&lt;/b&gt;   &lt;b&gt;1739 Pacific Coast Highway Lomita&lt;/b&gt;  Across Street from Starbucks and Carl's Jr.    Reasons to Choose US:  ✶ Largest Spa in Lomita  ✶ 7 Massage Rooms  ✶ Two Table Showers  ✶ Very Busy Spa  ✶ Very Clean and Upscale Facility  ✶ New Owner ( No really!!)  ✶ Just Renovated  ✶ Asian Girls Trained to Please  ✶ We only find and hire the best Asian Girls      We are close by:  ✶5 minutes from the 110 Freeway  ✶2 Miles from Carson  ✶3 Miles from Torrance  ✶3 Miles from Palos Verdes  ✶3 Miles from Rancho Palos Verdes  ✶2 Miles from Rolling Hills  ✶5 miles from Redondo Beach  ✶4 Miles from the 405 Freeway  ✶6 Miles from Long Beach  ✶3 Miles from San Pedro   &lt;b&gt;GOLDEN SPA&lt;/b&gt;   &lt;b&gt;Call Now &lt;u&gt;310-325-6178&lt;/u&gt;&lt;/b&gt;   &lt;b&gt;1739 Pacific Coast Highway Lomita&lt;/b&gt;  Across Street from Starbucks and Carl's Jr.  Located in the Plaza near Pacific Coast Hobbies &lt;b&gt; &lt;/b&gt;</t>
+    <t xml:space="preserve">  GOLDEN SPA     Call Now  310-325-6178      1739 Pacific Coast Highway Lomita   Across Street from Starbucks and Carl's Jr.    Reasons to Choose US:  ✶ Largest Spa in Lomita  ✶ 7 Massage Rooms  ✶ Two Table Showers  ✶ Very Busy Spa  ✶ Very Clean and Upscale Facility  ✶ New Owner ( No really!!)  ✶ Just Renovated  ✶ Asian Girls Trained to Please  ✶ We only find and hire the best Asian Girls      We are close by:  ✶5 minutes from the 110 Freeway  ✶2 Miles from Carson  ✶3 Miles from Torrance  ✶3 Miles from Palos Verdes  ✶3 Miles from Rancho Palos Verdes  ✶2 Miles from Rolling Hills  ✶5 miles from Redondo Beach  ✶4 Miles from the 405 Freeway  ✶6 Miles from Long Beach  ✶3 Miles from San Pedro    GOLDEN SPA     Call Now  310-325-6178      1739 Pacific Coast Highway Lomita   Across Street from Starbucks and Carl's Jr.  Located in the Plaza near Pacific Coast Hobbies    </t>
   </si>
   <si>
     <t>✶ LARGEST SPA in PALOS VERDES ✶  ROLLING HILLS ✶ LOMITA!! ✶ 7 Massage Rooms! ✶ Two Table Showers</t>
@@ -1878,7 +1866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,7 +2367,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -2531,7 +2519,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -3222,15 +3210,17 @@
       <c r="G36" t="s">
         <v>27</v>
       </c>
-      <c r="H36" t="s"/>
+      <c r="H36" t="s">
+        <v>202</v>
+      </c>
       <c r="I36" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J36" t="n">
-        <v>1913</v>
+        <v>1330</v>
       </c>
       <c r="K36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L36" t="s">
         <v>23</v>
@@ -3247,28 +3237,28 @@
         <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
       <c r="H37" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="I37" t="s">
-        <v>207</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1330</v>
+        <v>117</v>
+      </c>
+      <c r="J37" t="s">
+        <v>208</v>
       </c>
       <c r="K37" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L37" t="s">
         <v>23</v>
@@ -3285,28 +3275,28 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E38" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F38" t="s">
         <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="I38" t="s">
-        <v>117</v>
-      </c>
-      <c r="J38" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1312</v>
       </c>
       <c r="K38" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L38" t="s">
         <v>23</v>
@@ -3323,10 +3313,10 @@
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
@@ -3335,16 +3325,16 @@
         <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J39" t="n">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="K39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L39" t="s">
         <v>23</v>
@@ -3361,10 +3351,10 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F40" t="s">
         <v>17</v>
@@ -3373,16 +3363,16 @@
         <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I40" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J40" t="n">
         <v>1302</v>
       </c>
       <c r="K40" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L40" t="s">
         <v>23</v>
@@ -3393,16 +3383,16 @@
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E41" t="s">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -3416,11 +3406,11 @@
       <c r="I41" t="s">
         <v>227</v>
       </c>
-      <c r="J41" t="n">
-        <v>1302</v>
+      <c r="J41" t="s">
+        <v>228</v>
       </c>
       <c r="K41" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L41" t="s">
         <v>23</v>
@@ -3437,10 +3427,10 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E42" t="s">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="F42" t="s">
         <v>17</v>
@@ -3448,17 +3438,15 @@
       <c r="G42" t="s">
         <v>27</v>
       </c>
-      <c r="H42" t="s">
-        <v>230</v>
-      </c>
+      <c r="H42" t="s"/>
       <c r="I42" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J42" t="n">
-        <v>2251</v>
+        <v>1412</v>
       </c>
       <c r="K42" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L42" t="s">
         <v>23</v>
@@ -3475,10 +3463,10 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -3486,15 +3474,17 @@
       <c r="G43" t="s">
         <v>27</v>
       </c>
-      <c r="H43" t="s"/>
+      <c r="H43" t="s">
+        <v>236</v>
+      </c>
       <c r="I43" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J43" t="n">
-        <v>1412</v>
+        <v>1506</v>
       </c>
       <c r="K43" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L43" t="s">
         <v>23</v>
@@ -3511,10 +3501,10 @@
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E44" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
@@ -3522,17 +3512,15 @@
       <c r="G44" t="s">
         <v>27</v>
       </c>
-      <c r="H44" t="s">
-        <v>239</v>
-      </c>
+      <c r="H44" t="s"/>
       <c r="I44" t="s">
-        <v>240</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1506</v>
+        <v>241</v>
+      </c>
+      <c r="J44" t="s">
+        <v>242</v>
       </c>
       <c r="K44" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L44" t="s">
         <v>23</v>
@@ -3549,10 +3537,10 @@
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E45" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F45" t="s">
         <v>17</v>
@@ -3562,13 +3550,13 @@
       </c>
       <c r="H45" t="s"/>
       <c r="I45" t="s">
-        <v>244</v>
-      </c>
-      <c r="J45" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1412</v>
       </c>
       <c r="K45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L45" t="s">
         <v>23</v>
@@ -3585,10 +3573,10 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F46" t="s">
         <v>17</v>
@@ -3596,15 +3584,17 @@
       <c r="G46" t="s">
         <v>27</v>
       </c>
-      <c r="H46" t="s"/>
+      <c r="H46" t="s">
+        <v>250</v>
+      </c>
       <c r="I46" t="s">
-        <v>249</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1412</v>
+        <v>251</v>
+      </c>
+      <c r="J46" t="s">
+        <v>242</v>
       </c>
       <c r="K46" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L46" t="s">
         <v>23</v>
@@ -3615,16 +3605,16 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E47" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
@@ -3633,16 +3623,16 @@
         <v>27</v>
       </c>
       <c r="H47" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I47" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J47" t="s">
-        <v>245</v>
+        <v>112</v>
       </c>
       <c r="K47" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L47" t="s">
         <v>23</v>
@@ -3659,10 +3649,10 @@
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E48" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -3670,17 +3660,15 @@
       <c r="G48" t="s">
         <v>27</v>
       </c>
-      <c r="H48" t="s">
-        <v>258</v>
-      </c>
+      <c r="H48" t="s"/>
       <c r="I48" t="s">
-        <v>259</v>
-      </c>
-      <c r="J48" t="s">
+        <v>246</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1302</v>
+      </c>
+      <c r="K48" t="s">
         <v>260</v>
-      </c>
-      <c r="K48" t="s">
-        <v>261</v>
       </c>
       <c r="L48" t="s">
         <v>23</v>
@@ -3697,26 +3685,28 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
+        <v>261</v>
+      </c>
+      <c r="E49" t="s">
         <v>262</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
         <v>263</v>
       </c>
-      <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" t="s"/>
       <c r="I49" t="s">
-        <v>249</v>
-      </c>
-      <c r="J49" t="n">
-        <v>1302</v>
+        <v>264</v>
+      </c>
+      <c r="J49" t="s">
+        <v>265</v>
       </c>
       <c r="K49" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L49" t="s">
         <v>23</v>
@@ -3733,10 +3723,10 @@
         <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
@@ -3745,16 +3735,16 @@
         <v>27</v>
       </c>
       <c r="H50" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I50" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J50" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K50" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L50" t="s">
         <v>23</v>
@@ -3765,16 +3755,16 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E51" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
@@ -3783,16 +3773,16 @@
         <v>27</v>
       </c>
       <c r="H51" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I51" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J51" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K51" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L51" t="s">
         <v>23</v>
@@ -3809,10 +3799,10 @@
         <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E52" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F52" t="s">
         <v>17</v>
@@ -3821,16 +3811,16 @@
         <v>27</v>
       </c>
       <c r="H52" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I52" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J52" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K52" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L52" t="s">
         <v>23</v>
@@ -3847,10 +3837,10 @@
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E53" t="s">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c r="F53" t="s">
         <v>17</v>
@@ -3859,16 +3849,16 @@
         <v>27</v>
       </c>
       <c r="H53" t="s">
-        <v>285</v>
+        <v>28</v>
       </c>
       <c r="I53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1506</v>
+      </c>
+      <c r="K53" t="s">
         <v>286</v>
-      </c>
-      <c r="J53" t="s">
-        <v>287</v>
-      </c>
-      <c r="K53" t="s">
-        <v>288</v>
       </c>
       <c r="L53" t="s">
         <v>23</v>
@@ -3885,28 +3875,28 @@
         <v>14</v>
       </c>
       <c r="D54" t="s">
+        <v>287</v>
+      </c>
+      <c r="E54" t="s">
+        <v>288</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
         <v>289</v>
       </c>
-      <c r="E54" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" t="s">
-        <v>28</v>
-      </c>
       <c r="I54" t="s">
-        <v>29</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1506</v>
+        <v>290</v>
+      </c>
+      <c r="J54" t="s">
+        <v>291</v>
       </c>
       <c r="K54" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L54" t="s">
         <v>23</v>
@@ -3917,31 +3907,31 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E55" t="s">
-        <v>292</v>
+        <v>206</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="G55" t="s">
         <v>27</v>
       </c>
       <c r="H55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I55" t="s">
-        <v>294</v>
-      </c>
-      <c r="J55" t="s">
         <v>295</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1953</v>
       </c>
       <c r="K55" t="s">
         <v>296</v>
@@ -3955,7 +3945,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -3964,25 +3954,25 @@
         <v>297</v>
       </c>
       <c r="E56" t="s">
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="F56" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="G56" t="s">
         <v>27</v>
       </c>
       <c r="H56" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I56" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J56" t="n">
-        <v>1953</v>
+        <v>1915</v>
       </c>
       <c r="K56" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L56" t="s">
         <v>23</v>
@@ -3993,16 +3983,16 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E57" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
@@ -4011,16 +4001,16 @@
         <v>27</v>
       </c>
       <c r="H57" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I57" t="s">
-        <v>304</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1915</v>
+        <v>305</v>
+      </c>
+      <c r="J57" t="s">
+        <v>306</v>
       </c>
       <c r="K57" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L57" t="s">
         <v>23</v>
@@ -4031,16 +4021,16 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E58" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F58" t="s">
         <v>17</v>
@@ -4049,16 +4039,16 @@
         <v>27</v>
       </c>
       <c r="H58" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I58" t="s">
-        <v>309</v>
-      </c>
-      <c r="J58" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1413</v>
       </c>
       <c r="K58" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L58" t="s">
         <v>23</v>
@@ -4075,10 +4065,10 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E59" t="s">
-        <v>313</v>
+        <v>221</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -4087,16 +4077,16 @@
         <v>27</v>
       </c>
       <c r="H59" t="s">
+        <v>222</v>
+      </c>
+      <c r="I59" t="s">
+        <v>223</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2405</v>
+      </c>
+      <c r="K59" t="s">
         <v>314</v>
-      </c>
-      <c r="I59" t="s">
-        <v>315</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1413</v>
-      </c>
-      <c r="K59" t="s">
-        <v>316</v>
       </c>
       <c r="L59" t="s">
         <v>23</v>
@@ -4113,28 +4103,28 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
+        <v>315</v>
+      </c>
+      <c r="E60" t="s">
+        <v>316</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
         <v>317</v>
       </c>
-      <c r="E60" t="s">
-        <v>225</v>
-      </c>
-      <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" t="s">
-        <v>226</v>
-      </c>
       <c r="I60" t="s">
-        <v>227</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2405</v>
+        <v>318</v>
+      </c>
+      <c r="J60" t="s">
+        <v>319</v>
       </c>
       <c r="K60" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L60" t="s">
         <v>23</v>
@@ -4145,34 +4135,34 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E61" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="G61" t="s">
         <v>27</v>
       </c>
       <c r="H61" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="I61" t="s">
-        <v>322</v>
-      </c>
-      <c r="J61" t="s">
-        <v>323</v>
+        <v>324</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1955</v>
       </c>
       <c r="K61" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L61" t="s">
         <v>23</v>
@@ -4183,34 +4173,34 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E62" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F62" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="G62" t="s">
         <v>27</v>
       </c>
       <c r="H62" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I62" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J62" t="n">
-        <v>1955</v>
+        <v>2405</v>
       </c>
       <c r="K62" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L62" t="s">
         <v>23</v>
@@ -4227,10 +4217,10 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E63" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -4239,16 +4229,16 @@
         <v>27</v>
       </c>
       <c r="H63" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="I63" t="s">
-        <v>333</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2405</v>
+        <v>334</v>
+      </c>
+      <c r="J63" t="s">
+        <v>335</v>
       </c>
       <c r="K63" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L63" t="s">
         <v>23</v>
@@ -4265,10 +4255,10 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E64" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
@@ -4277,16 +4267,16 @@
         <v>27</v>
       </c>
       <c r="H64" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I64" t="s">
-        <v>338</v>
-      </c>
-      <c r="J64" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1413</v>
       </c>
       <c r="K64" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L64" t="s">
         <v>23</v>
@@ -4303,10 +4293,10 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E65" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -4315,16 +4305,16 @@
         <v>27</v>
       </c>
       <c r="H65" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I65" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J65" t="n">
-        <v>1413</v>
+        <v>2404</v>
       </c>
       <c r="K65" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L65" t="s">
         <v>23</v>
@@ -4341,10 +4331,10 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E66" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -4353,16 +4343,16 @@
         <v>27</v>
       </c>
       <c r="H66" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I66" t="s">
-        <v>349</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2404</v>
+        <v>350</v>
+      </c>
+      <c r="J66" t="s">
+        <v>319</v>
       </c>
       <c r="K66" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L66" t="s">
         <v>23</v>
@@ -4373,16 +4363,16 @@
         <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E67" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F67" t="s">
         <v>17</v>
@@ -4391,16 +4381,16 @@
         <v>27</v>
       </c>
       <c r="H67" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I67" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="J67" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="K67" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L67" t="s">
         <v>23</v>
@@ -4411,16 +4401,16 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E68" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
@@ -4429,16 +4419,16 @@
         <v>27</v>
       </c>
       <c r="H68" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="I68" t="s">
-        <v>359</v>
-      </c>
-      <c r="J68" t="s">
-        <v>360</v>
+        <v>361</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1412</v>
       </c>
       <c r="K68" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L68" t="s">
         <v>23</v>
@@ -4449,16 +4439,16 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E69" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -4467,16 +4457,16 @@
         <v>27</v>
       </c>
       <c r="H69" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I69" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J69" t="n">
-        <v>1412</v>
+        <v>2421</v>
       </c>
       <c r="K69" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L69" t="s">
         <v>23</v>
@@ -4487,16 +4477,16 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E70" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F70" t="s">
         <v>17</v>
@@ -4504,17 +4494,15 @@
       <c r="G70" t="s">
         <v>27</v>
       </c>
-      <c r="H70" t="s">
-        <v>369</v>
-      </c>
+      <c r="H70" t="s"/>
       <c r="I70" t="s">
         <v>370</v>
       </c>
-      <c r="J70" t="n">
-        <v>2421</v>
+      <c r="J70" t="s">
+        <v>371</v>
       </c>
       <c r="K70" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L70" t="s">
         <v>23</v>
@@ -4525,16 +4513,16 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E71" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -4544,13 +4532,13 @@
       </c>
       <c r="H71" t="s"/>
       <c r="I71" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J71" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K71" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L71" t="s">
         <v>23</v>
@@ -4567,10 +4555,10 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E72" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
@@ -4578,15 +4566,17 @@
       <c r="G72" t="s">
         <v>27</v>
       </c>
-      <c r="H72" t="s"/>
+      <c r="H72" t="s">
+        <v>380</v>
+      </c>
       <c r="I72" t="s">
-        <v>379</v>
-      </c>
-      <c r="J72" t="s">
-        <v>380</v>
+        <v>381</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1425</v>
       </c>
       <c r="K72" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L72" t="s">
         <v>23</v>
@@ -4597,16 +4587,16 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E73" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F73" t="s">
         <v>17</v>
@@ -4615,16 +4605,16 @@
         <v>27</v>
       </c>
       <c r="H73" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I73" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J73" t="n">
-        <v>1425</v>
+        <v>1854</v>
       </c>
       <c r="K73" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L73" t="s">
         <v>23</v>
@@ -4641,10 +4631,10 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E74" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
@@ -4653,16 +4643,16 @@
         <v>27</v>
       </c>
       <c r="H74" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I74" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J74" t="n">
-        <v>1854</v>
+        <v>1412</v>
       </c>
       <c r="K74" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L74" t="s">
         <v>23</v>
@@ -4673,16 +4663,16 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E75" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F75" t="s">
         <v>17</v>
@@ -4691,16 +4681,16 @@
         <v>27</v>
       </c>
       <c r="H75" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I75" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="J75" t="n">
-        <v>1412</v>
+        <v>1319</v>
       </c>
       <c r="K75" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L75" t="s">
         <v>23</v>
@@ -4711,16 +4701,16 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E76" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
@@ -4729,16 +4719,16 @@
         <v>27</v>
       </c>
       <c r="H76" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="I76" t="s">
         <v>400</v>
       </c>
-      <c r="J76" t="n">
-        <v>1319</v>
+      <c r="J76" t="s">
+        <v>401</v>
       </c>
       <c r="K76" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L76" t="s">
         <v>23</v>
@@ -4749,34 +4739,34 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E77" t="s">
-        <v>403</v>
+        <v>192</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="G77" t="s">
         <v>27</v>
       </c>
       <c r="H77" t="s">
-        <v>369</v>
+        <v>197</v>
       </c>
       <c r="I77" t="s">
         <v>404</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" t="n">
+        <v>2032</v>
+      </c>
+      <c r="K77" t="s">
         <v>405</v>
-      </c>
-      <c r="K77" t="s">
-        <v>406</v>
       </c>
       <c r="L77" t="s">
         <v>23</v>
@@ -4787,34 +4777,34 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
       </c>
       <c r="D78" t="s">
+        <v>406</v>
+      </c>
+      <c r="E78" t="s">
         <v>407</v>
       </c>
-      <c r="E78" t="s">
-        <v>192</v>
-      </c>
       <c r="F78" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="G78" t="s">
         <v>27</v>
       </c>
       <c r="H78" t="s">
-        <v>197</v>
+        <v>408</v>
       </c>
       <c r="I78" t="s">
-        <v>408</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2032</v>
+        <v>409</v>
+      </c>
+      <c r="J78" t="s">
+        <v>410</v>
       </c>
       <c r="K78" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L78" t="s">
         <v>23</v>
@@ -4825,16 +4815,16 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E79" t="s">
-        <v>411</v>
+        <v>216</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
@@ -4843,16 +4833,16 @@
         <v>27</v>
       </c>
       <c r="H79" t="s">
-        <v>412</v>
+        <v>217</v>
       </c>
       <c r="I79" t="s">
-        <v>413</v>
+        <v>218</v>
       </c>
       <c r="J79" t="s">
-        <v>414</v>
+        <v>208</v>
       </c>
       <c r="K79" t="s">
-        <v>415</v>
+        <v>219</v>
       </c>
       <c r="L79" t="s">
         <v>23</v>
@@ -4869,28 +4859,28 @@
         <v>14</v>
       </c>
       <c r="D80" t="s">
+        <v>413</v>
+      </c>
+      <c r="E80" t="s">
+        <v>414</v>
+      </c>
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s">
+        <v>415</v>
+      </c>
+      <c r="I80" t="s">
         <v>416</v>
       </c>
-      <c r="E80" t="s">
-        <v>220</v>
-      </c>
-      <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" t="s">
-        <v>221</v>
-      </c>
-      <c r="I80" t="s">
-        <v>222</v>
-      </c>
       <c r="J80" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="K80" t="s">
-        <v>223</v>
+        <v>417</v>
       </c>
       <c r="L80" t="s">
         <v>23</v>
@@ -4907,28 +4897,28 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E81" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>27</v>
+        <v>420</v>
       </c>
       <c r="H81" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="I81" t="s">
-        <v>420</v>
-      </c>
-      <c r="J81" t="s">
-        <v>245</v>
+        <v>422</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1330</v>
       </c>
       <c r="K81" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L81" t="s">
         <v>23</v>
@@ -4945,28 +4935,28 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E82" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F82" t="s">
         <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>424</v>
+        <v>27</v>
       </c>
       <c r="H82" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I82" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J82" t="n">
-        <v>1330</v>
+        <v>2415</v>
       </c>
       <c r="K82" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L82" t="s">
         <v>23</v>
@@ -4977,19 +4967,19 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E83" t="s">
-        <v>429</v>
+        <v>249</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="G83" t="s">
         <v>27</v>
@@ -5001,7 +4991,7 @@
         <v>431</v>
       </c>
       <c r="J83" t="n">
-        <v>2415</v>
+        <v>1941</v>
       </c>
       <c r="K83" t="s">
         <v>432</v>
@@ -5015,7 +5005,7 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -5024,25 +5014,25 @@
         <v>433</v>
       </c>
       <c r="E84" t="s">
+        <v>434</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" t="s">
+        <v>250</v>
+      </c>
+      <c r="I84" t="s">
+        <v>251</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1302</v>
+      </c>
+      <c r="K84" t="s">
         <v>252</v>
-      </c>
-      <c r="F84" t="s">
-        <v>127</v>
-      </c>
-      <c r="G84" t="s">
-        <v>27</v>
-      </c>
-      <c r="H84" t="s">
-        <v>434</v>
-      </c>
-      <c r="I84" t="s">
-        <v>435</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1941</v>
-      </c>
-      <c r="K84" t="s">
-        <v>436</v>
       </c>
       <c r="L84" t="s">
         <v>23</v>
@@ -5059,28 +5049,28 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
+        <v>435</v>
+      </c>
+      <c r="E85" t="s">
+        <v>436</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s">
         <v>437</v>
       </c>
-      <c r="E85" t="s">
+      <c r="I85" t="s">
         <v>438</v>
       </c>
-      <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
-      </c>
-      <c r="H85" t="s">
-        <v>253</v>
-      </c>
-      <c r="I85" t="s">
-        <v>254</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1302</v>
+      <c r="J85" t="s">
+        <v>401</v>
       </c>
       <c r="K85" t="s">
-        <v>255</v>
+        <v>439</v>
       </c>
       <c r="L85" t="s">
         <v>23</v>
@@ -5097,10 +5087,10 @@
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E86" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F86" t="s">
         <v>17</v>
@@ -5109,16 +5099,16 @@
         <v>27</v>
       </c>
       <c r="H86" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I86" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J86" t="s">
-        <v>405</v>
+        <v>306</v>
       </c>
       <c r="K86" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L86" t="s">
         <v>23</v>
@@ -5135,10 +5125,10 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E87" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
@@ -5146,14 +5136,12 @@
       <c r="G87" t="s">
         <v>27</v>
       </c>
-      <c r="H87" t="s">
-        <v>446</v>
-      </c>
+      <c r="H87" t="s"/>
       <c r="I87" t="s">
         <v>447</v>
       </c>
-      <c r="J87" t="s">
-        <v>310</v>
+      <c r="J87" t="n">
+        <v>1506</v>
       </c>
       <c r="K87" t="s">
         <v>448</v>
@@ -5167,7 +5155,7 @@
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -5179,20 +5167,22 @@
         <v>450</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="G88" t="s">
         <v>27</v>
       </c>
-      <c r="H88" t="s"/>
+      <c r="H88" t="s">
+        <v>451</v>
+      </c>
       <c r="I88" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J88" t="n">
-        <v>1506</v>
+        <v>2127</v>
       </c>
       <c r="K88" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L88" t="s">
         <v>23</v>
@@ -5203,34 +5193,34 @@
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E89" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F89" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="G89" t="s">
         <v>27</v>
       </c>
       <c r="H89" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I89" t="s">
-        <v>456</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2127</v>
+        <v>457</v>
+      </c>
+      <c r="J89" t="s">
+        <v>458</v>
       </c>
       <c r="K89" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L89" t="s">
         <v>23</v>
@@ -5247,10 +5237,10 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E90" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F90" t="s">
         <v>17</v>
@@ -5259,16 +5249,16 @@
         <v>27</v>
       </c>
       <c r="H90" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="I90" t="s">
-        <v>461</v>
-      </c>
-      <c r="J90" t="s">
-        <v>462</v>
+        <v>463</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2455</v>
       </c>
       <c r="K90" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L90" t="s">
         <v>23</v>
@@ -5285,10 +5275,10 @@
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E91" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F91" t="s">
         <v>17</v>
@@ -5297,16 +5287,16 @@
         <v>27</v>
       </c>
       <c r="H91" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I91" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J91" t="n">
-        <v>2455</v>
+        <v>1637</v>
       </c>
       <c r="K91" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L91" t="s">
         <v>23</v>
@@ -5323,10 +5313,10 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E92" t="s">
-        <v>470</v>
+        <v>216</v>
       </c>
       <c r="F92" t="s">
         <v>17</v>
@@ -5335,16 +5325,16 @@
         <v>27</v>
       </c>
       <c r="H92" t="s">
+        <v>217</v>
+      </c>
+      <c r="I92" t="s">
+        <v>218</v>
+      </c>
+      <c r="J92" t="s">
+        <v>291</v>
+      </c>
+      <c r="K92" t="s">
         <v>471</v>
-      </c>
-      <c r="I92" t="s">
-        <v>472</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1637</v>
-      </c>
-      <c r="K92" t="s">
-        <v>473</v>
       </c>
       <c r="L92" t="s">
         <v>23</v>
@@ -5355,34 +5345,34 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
       </c>
       <c r="D93" t="s">
+        <v>472</v>
+      </c>
+      <c r="E93" t="s">
+        <v>473</v>
+      </c>
+      <c r="F93" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" t="s">
         <v>474</v>
       </c>
-      <c r="E93" t="s">
-        <v>220</v>
-      </c>
-      <c r="F93" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93" t="s">
-        <v>27</v>
-      </c>
-      <c r="H93" t="s">
-        <v>221</v>
-      </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>475</v>
       </c>
       <c r="J93" t="s">
-        <v>295</v>
+        <v>476</v>
       </c>
       <c r="K93" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L93" t="s">
         <v>23</v>
@@ -5393,16 +5383,16 @@
         <v>12</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E94" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
@@ -5411,16 +5401,16 @@
         <v>27</v>
       </c>
       <c r="H94" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="I94" t="s">
-        <v>479</v>
-      </c>
-      <c r="J94" t="s">
-        <v>480</v>
+        <v>481</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2458</v>
       </c>
       <c r="K94" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L94" t="s">
         <v>23</v>
@@ -5437,10 +5427,10 @@
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E95" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
@@ -5449,16 +5439,16 @@
         <v>27</v>
       </c>
       <c r="H95" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I95" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J95" t="n">
-        <v>2458</v>
+        <v>2405</v>
       </c>
       <c r="K95" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L95" t="s">
         <v>23</v>
@@ -5469,16 +5459,16 @@
         <v>12</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E96" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
@@ -5487,16 +5477,16 @@
         <v>27</v>
       </c>
       <c r="H96" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I96" t="s">
-        <v>490</v>
-      </c>
-      <c r="J96" t="n">
-        <v>2405</v>
+        <v>491</v>
+      </c>
+      <c r="J96" t="s">
+        <v>492</v>
       </c>
       <c r="K96" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L96" t="s">
         <v>23</v>
@@ -5507,16 +5497,16 @@
         <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E97" t="s">
-        <v>493</v>
+        <v>221</v>
       </c>
       <c r="F97" t="s">
         <v>17</v>
@@ -5525,16 +5515,16 @@
         <v>27</v>
       </c>
       <c r="H97" t="s">
-        <v>494</v>
+        <v>222</v>
       </c>
       <c r="I97" t="s">
-        <v>495</v>
+        <v>223</v>
       </c>
       <c r="J97" t="s">
-        <v>496</v>
+        <v>208</v>
       </c>
       <c r="K97" t="s">
-        <v>497</v>
+        <v>314</v>
       </c>
       <c r="L97" t="s">
         <v>23</v>
@@ -5551,10 +5541,10 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E98" t="s">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="F98" t="s">
         <v>17</v>
@@ -5563,16 +5553,16 @@
         <v>27</v>
       </c>
       <c r="H98" t="s">
-        <v>226</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="J98" t="s">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="K98" t="s">
-        <v>318</v>
+        <v>49</v>
       </c>
       <c r="L98" t="s">
         <v>23</v>
@@ -5589,68 +5579,30 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
+        <v>496</v>
+      </c>
+      <c r="E99" t="s">
+        <v>497</v>
+      </c>
+      <c r="F99" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" t="s">
+        <v>498</v>
+      </c>
+      <c r="I99" t="s">
         <v>499</v>
       </c>
-      <c r="E99" t="s">
-        <v>46</v>
-      </c>
-      <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s">
-        <v>27</v>
-      </c>
-      <c r="H99" t="s">
-        <v>47</v>
-      </c>
-      <c r="I99" t="s">
-        <v>48</v>
-      </c>
-      <c r="J99" t="s">
-        <v>30</v>
+      <c r="J99" t="n">
+        <v>1506</v>
       </c>
       <c r="K99" t="s">
-        <v>49</v>
+        <v>500</v>
       </c>
       <c r="L99" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
-      <c r="A100" t="s">
-        <v>12</v>
-      </c>
-      <c r="B100" t="s">
-        <v>24</v>
-      </c>
-      <c r="C100" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" t="s">
-        <v>500</v>
-      </c>
-      <c r="E100" t="s">
-        <v>501</v>
-      </c>
-      <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s">
-        <v>27</v>
-      </c>
-      <c r="H100" t="s">
-        <v>502</v>
-      </c>
-      <c r="I100" t="s">
-        <v>503</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1506</v>
-      </c>
-      <c r="K100" t="s">
-        <v>504</v>
-      </c>
-      <c r="L100" t="s">
         <v>23</v>
       </c>
     </row>
